--- a/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
+++ b/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="223">
   <si>
     <t>土地坐落</t>
   </si>
@@ -409,6 +409,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>彰化第五信用合作社</t>
   </si>
   <si>
@@ -419,6 +428,9 @@
   </si>
   <si>
     <t>彰化第十信用合作社</t>
+  </si>
+  <si>
+    <t>2012-04-27</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1631,19 +1643,19 @@
         <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1651,22 +1663,22 @@
         <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E2" s="2">
         <v>6500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2623,13 +2635,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>122</v>
       </c>
@@ -2648,13 +2660,22 @@
       <c r="G1" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2671,13 +2692,22 @@
       <c r="G2" s="2">
         <v>70000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2694,13 +2724,22 @@
       <c r="G3" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -2717,13 +2756,22 @@
       <c r="G4" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
@@ -2740,13 +2788,22 @@
       <c r="G5" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -2762,6 +2819,15 @@
       </c>
       <c r="G6" s="2">
         <v>10000</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1338</v>
       </c>
     </row>
   </sheetData>
@@ -2779,25 +2845,25 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>103</v>
@@ -2808,16 +2874,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F2" s="2">
         <v>5</v>
@@ -2847,22 +2913,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>103</v>
@@ -2873,13 +2939,13 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E2" s="2">
         <v>47.032</v>
@@ -2899,13 +2965,13 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E3" s="2">
         <v>181.75</v>
@@ -2925,13 +2991,13 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E4" s="2">
         <v>160.87</v>
@@ -2951,13 +3017,13 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E5" s="2">
         <v>217.15</v>
@@ -2977,13 +3043,13 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E6" s="2">
         <v>189.791</v>
@@ -3003,13 +3069,13 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E7" s="2">
         <v>108.861</v>
@@ -3029,13 +3095,13 @@
         <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E8" s="2">
         <v>78.308</v>
@@ -3055,13 +3121,13 @@
         <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E9" s="2">
         <v>1031.299</v>
@@ -3081,13 +3147,13 @@
         <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E10" s="2">
         <v>134.789</v>
@@ -3107,13 +3173,13 @@
         <v>131</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E11" s="2">
         <v>116.88</v>
@@ -3133,13 +3199,13 @@
         <v>132</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E12" s="2">
         <v>69.951</v>
@@ -3159,13 +3225,13 @@
         <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E13" s="2">
         <v>160.81</v>
@@ -3185,13 +3251,13 @@
         <v>134</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E14" s="2">
         <v>50000</v>
@@ -3211,13 +3277,13 @@
         <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E15" s="2">
         <v>108.453</v>
@@ -3237,13 +3303,13 @@
         <v>136</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E16" s="2">
         <v>184.302</v>
@@ -3263,13 +3329,13 @@
         <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E17" s="2">
         <v>140.375</v>
@@ -3289,13 +3355,13 @@
         <v>138</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E18" s="2">
         <v>185.784</v>
@@ -3315,13 +3381,13 @@
         <v>139</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E19" s="2">
         <v>3.333</v>
@@ -3341,13 +3407,13 @@
         <v>140</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E20" s="2">
         <v>34.357</v>
@@ -3377,19 +3443,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>103</v>
@@ -3400,14 +3466,14 @@
         <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3417,22 +3483,22 @@
         <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3440,7 +3506,7 @@
         <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -3469,16 +3535,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3486,16 +3552,16 @@
         <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3503,16 +3569,16 @@
         <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3520,16 +3586,16 @@
         <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3537,16 +3603,16 @@
         <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3554,16 +3620,16 @@
         <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3571,16 +3637,16 @@
         <v>162</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3588,16 +3654,16 @@
         <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3605,16 +3671,16 @@
         <v>164</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3622,16 +3688,16 @@
         <v>165</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3639,16 +3705,16 @@
         <v>166</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3656,16 +3722,16 @@
         <v>167</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3673,16 +3739,16 @@
         <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3690,16 +3756,16 @@
         <v>169</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3707,16 +3773,16 @@
         <v>170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3724,16 +3790,16 @@
         <v>171</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3741,16 +3807,16 @@
         <v>172</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3758,16 +3824,16 @@
         <v>173</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3775,16 +3841,16 @@
         <v>174</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
+++ b/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="225">
   <si>
     <t>土地坐落</t>
   </si>
@@ -409,6 +409,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -428,6 +431,9 @@
   </si>
   <si>
     <t>彰化第十信用合作社</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-27</t>
@@ -1643,19 +1649,19 @@
         <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1663,22 +1669,22 @@
         <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E2" s="2">
         <v>6500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2635,13 +2641,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>122</v>
       </c>
@@ -2669,13 +2675,16 @@
       <c r="J1" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2693,21 +2702,24 @@
         <v>70000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>1338</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2725,21 +2737,24 @@
         <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>1338</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -2757,21 +2772,24 @@
         <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>1338</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
@@ -2789,21 +2807,24 @@
         <v>10000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>1338</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -2821,12 +2842,15 @@
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>1338</v>
       </c>
     </row>
@@ -2845,25 +2869,25 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>103</v>
@@ -2874,16 +2898,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F2" s="2">
         <v>5</v>
@@ -2913,22 +2937,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>103</v>
@@ -2939,13 +2963,13 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E2" s="2">
         <v>47.032</v>
@@ -2965,13 +2989,13 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E3" s="2">
         <v>181.75</v>
@@ -2991,13 +3015,13 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E4" s="2">
         <v>160.87</v>
@@ -3017,13 +3041,13 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E5" s="2">
         <v>217.15</v>
@@ -3043,13 +3067,13 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E6" s="2">
         <v>189.791</v>
@@ -3069,13 +3093,13 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E7" s="2">
         <v>108.861</v>
@@ -3095,13 +3119,13 @@
         <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E8" s="2">
         <v>78.308</v>
@@ -3121,13 +3145,13 @@
         <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E9" s="2">
         <v>1031.299</v>
@@ -3147,13 +3171,13 @@
         <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E10" s="2">
         <v>134.789</v>
@@ -3173,13 +3197,13 @@
         <v>131</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E11" s="2">
         <v>116.88</v>
@@ -3199,13 +3223,13 @@
         <v>132</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E12" s="2">
         <v>69.951</v>
@@ -3225,13 +3249,13 @@
         <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E13" s="2">
         <v>160.81</v>
@@ -3251,13 +3275,13 @@
         <v>134</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E14" s="2">
         <v>50000</v>
@@ -3277,13 +3301,13 @@
         <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E15" s="2">
         <v>108.453</v>
@@ -3303,13 +3327,13 @@
         <v>136</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E16" s="2">
         <v>184.302</v>
@@ -3329,13 +3353,13 @@
         <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E17" s="2">
         <v>140.375</v>
@@ -3355,13 +3379,13 @@
         <v>138</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E18" s="2">
         <v>185.784</v>
@@ -3381,13 +3405,13 @@
         <v>139</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E19" s="2">
         <v>3.333</v>
@@ -3407,13 +3431,13 @@
         <v>140</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E20" s="2">
         <v>34.357</v>
@@ -3443,19 +3467,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>103</v>
@@ -3466,14 +3490,14 @@
         <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3483,22 +3507,22 @@
         <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3506,7 +3530,7 @@
         <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -3535,16 +3559,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3552,16 +3576,16 @@
         <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3569,16 +3593,16 @@
         <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3586,16 +3610,16 @@
         <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3603,16 +3627,16 @@
         <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3620,16 +3644,16 @@
         <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3637,16 +3661,16 @@
         <v>162</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3654,16 +3678,16 @@
         <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3671,16 +3695,16 @@
         <v>164</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3688,16 +3712,16 @@
         <v>165</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3705,16 +3729,16 @@
         <v>166</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3722,16 +3746,16 @@
         <v>167</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3739,16 +3763,16 @@
         <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3756,16 +3780,16 @@
         <v>169</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3773,16 +3797,16 @@
         <v>170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3790,16 +3814,16 @@
         <v>171</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3807,16 +3831,16 @@
         <v>172</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3824,16 +3848,16 @@
         <v>173</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3841,16 +3865,16 @@
         <v>174</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
+++ b/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="230">
   <si>
     <t>土地坐落</t>
   </si>
@@ -412,6 +412,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -421,6 +424,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>彰化第五信用合作社</t>
   </si>
   <si>
@@ -436,7 +445,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-27</t>
+  </si>
+  <si>
+    <t>tmp9bfb1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1649,19 +1664,19 @@
         <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1669,22 +1684,22 @@
         <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E2" s="2">
         <v>6500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2641,13 +2656,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>122</v>
       </c>
@@ -2678,13 +2693,22 @@
       <c r="K1" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>31</v>
@@ -2702,24 +2726,33 @@
         <v>70000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>1338</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N2" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>31</v>
@@ -2737,24 +2770,33 @@
         <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>1338</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N3" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
@@ -2772,24 +2814,33 @@
         <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>1338</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N4" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
@@ -2807,24 +2858,33 @@
         <v>10000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>1338</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N5" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -2842,16 +2902,25 @@
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>1338</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N6" s="2">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2869,25 +2938,25 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>103</v>
@@ -2898,16 +2967,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F2" s="2">
         <v>5</v>
@@ -2937,22 +3006,22 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>103</v>
@@ -2963,13 +3032,13 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E2" s="2">
         <v>47.032</v>
@@ -2989,13 +3058,13 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E3" s="2">
         <v>181.75</v>
@@ -3015,13 +3084,13 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E4" s="2">
         <v>160.87</v>
@@ -3041,13 +3110,13 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E5" s="2">
         <v>217.15</v>
@@ -3067,13 +3136,13 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E6" s="2">
         <v>189.791</v>
@@ -3093,13 +3162,13 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E7" s="2">
         <v>108.861</v>
@@ -3119,13 +3188,13 @@
         <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E8" s="2">
         <v>78.308</v>
@@ -3145,13 +3214,13 @@
         <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E9" s="2">
         <v>1031.299</v>
@@ -3171,13 +3240,13 @@
         <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E10" s="2">
         <v>134.789</v>
@@ -3197,13 +3266,13 @@
         <v>131</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E11" s="2">
         <v>116.88</v>
@@ -3223,13 +3292,13 @@
         <v>132</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E12" s="2">
         <v>69.951</v>
@@ -3249,13 +3318,13 @@
         <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E13" s="2">
         <v>160.81</v>
@@ -3275,13 +3344,13 @@
         <v>134</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E14" s="2">
         <v>50000</v>
@@ -3301,13 +3370,13 @@
         <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E15" s="2">
         <v>108.453</v>
@@ -3327,13 +3396,13 @@
         <v>136</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E16" s="2">
         <v>184.302</v>
@@ -3353,13 +3422,13 @@
         <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E17" s="2">
         <v>140.375</v>
@@ -3379,13 +3448,13 @@
         <v>138</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E18" s="2">
         <v>185.784</v>
@@ -3405,13 +3474,13 @@
         <v>139</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E19" s="2">
         <v>3.333</v>
@@ -3431,13 +3500,13 @@
         <v>140</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E20" s="2">
         <v>34.357</v>
@@ -3467,19 +3536,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>103</v>
@@ -3490,14 +3559,14 @@
         <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3507,22 +3576,22 @@
         <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>87</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3530,7 +3599,7 @@
         <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -3559,16 +3628,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3576,16 +3645,16 @@
         <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3593,16 +3662,16 @@
         <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3610,16 +3679,16 @@
         <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3627,16 +3696,16 @@
         <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3644,16 +3713,16 @@
         <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3661,16 +3730,16 @@
         <v>162</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3678,16 +3747,16 @@
         <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3695,16 +3764,16 @@
         <v>164</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3712,16 +3781,16 @@
         <v>165</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3729,16 +3798,16 @@
         <v>166</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3746,16 +3815,16 @@
         <v>167</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3763,16 +3832,16 @@
         <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3780,16 +3849,16 @@
         <v>169</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3797,16 +3866,16 @@
         <v>170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3814,16 +3883,16 @@
         <v>171</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3831,16 +3900,16 @@
         <v>172</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3848,16 +3917,16 @@
         <v>173</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3865,16 +3934,16 @@
         <v>174</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
+++ b/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
@@ -23,9 +23,216 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="230">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="232">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市萬興段07870000地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延和段01280000地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延和段01290000地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段04040000地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段04040001地號</t>
+  </si>
+  <si>
+    <t>彰{匕縣彰化市延平段08000000地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段03350039地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段04700000地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南郭段南郭小段03390005地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南郭段南郭小段03390006地號</t>
+  </si>
+  <si>
+    <t>彰化縣芬園鄉清水段01340000地號</t>
+  </si>
+  <si>
+    <t>彰化縣芬園鄉清水段01450000地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南興段03640001地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南興段03640002地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南郭段南郭小段</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南郭段南郭小段01600065地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市箣桐段09030000地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市孔門段06250000地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市孔門段06290000地號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市孔門段06300000地號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠信段01180000地號</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之30</t>
+  </si>
+  <si>
+    <t>林滄敏</t>
+  </si>
+  <si>
+    <t>林施金玉</t>
+  </si>
+  <si>
+    <t>林施余玉</t>
+  </si>
+  <si>
+    <t>81年03月20日</t>
+  </si>
+  <si>
+    <t>81年05月19曰</t>
+  </si>
+  <si>
+    <t>81年05月19日</t>
+  </si>
+  <si>
+    <t>78年12月11曰</t>
+  </si>
+  <si>
+    <t>79年05月02日</t>
+  </si>
+  <si>
+    <t>81年10月19日</t>
+  </si>
+  <si>
+    <t>78年05月09日</t>
+  </si>
+  <si>
+    <t>84年12月23日</t>
+  </si>
+  <si>
+    <t>85年05月20日</t>
+  </si>
+  <si>
+    <t>86年03月28日</t>
+  </si>
+  <si>
+    <t>85年06月05日</t>
+  </si>
+  <si>
+    <t>89年01月12日</t>
+  </si>
+  <si>
+    <t>87年06月18日</t>
+  </si>
+  <si>
+    <t>88年10月</t>
+  </si>
+  <si>
+    <t>88年10月29日</t>
+  </si>
+  <si>
+    <t>88年06月08日</t>
+  </si>
+  <si>
+    <t>94年08月19日</t>
+  </si>
+  <si>
+    <t>94年05月18曰</t>
+  </si>
+  <si>
+    <t>95年11月08日</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>[333=貝賈</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-27</t>
+  </si>
+  <si>
+    <t>tmp9bfb1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -46,238 +253,76 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>彰化縣彰化市萬興段0787-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延和段0128-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延和段0129-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段0404-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段0404-0001 地號</t>
-  </si>
-  <si>
-    <t>彰{匕縣彰化市延平段0800-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段0335-0039 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段0470-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南郭段南郭小段 0339-0005 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南郭段南郭小段 0339-0006 地號</t>
-  </si>
-  <si>
-    <t>彰化縣芬園鄉清水段0134-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣芬園鄉清水段0145-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南興段0364-0001 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南興段0364-0002 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南郭段南郭小段</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南郭段南郭小段 0160-0065 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市箣桐段0903-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市孔門段0625-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市孔門段0629-0000 地號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市孔門段0630-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠信段0118-0000 地號</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 30</t>
-  </si>
-  <si>
-    <t>林滄敏</t>
-  </si>
-  <si>
-    <t>林施金玉</t>
-  </si>
-  <si>
-    <t>林施余玉</t>
-  </si>
-  <si>
-    <t>81年03月 20日</t>
-  </si>
-  <si>
-    <t>81年05月 19曰</t>
-  </si>
-  <si>
-    <t>81年05月 19日</t>
-  </si>
-  <si>
-    <t>78年12月 11曰</t>
-  </si>
-  <si>
-    <t>79年05月 02日</t>
-  </si>
-  <si>
-    <t>81年10月 19日</t>
-  </si>
-  <si>
-    <t>78年05月 09日</t>
-  </si>
-  <si>
-    <t>84年12月 23日</t>
-  </si>
-  <si>
-    <t>85年05月 20日</t>
-  </si>
-  <si>
-    <t>86年03月 28日</t>
-  </si>
-  <si>
-    <t>85年06月 05日</t>
-  </si>
-  <si>
-    <t>89年01月 12日</t>
-  </si>
-  <si>
-    <t>87年06月 18日</t>
-  </si>
-  <si>
-    <t>88年10月</t>
-  </si>
-  <si>
-    <t>88年10月 29日</t>
-  </si>
-  <si>
-    <t>88年06月 08日</t>
-  </si>
-  <si>
-    <t>94年08月 19日</t>
-  </si>
-  <si>
-    <t>94年05月 18曰</t>
-  </si>
-  <si>
-    <t>95年11月 08日</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>[333-=^ 貝賈</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市田中央段 •00041-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段00931-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延和段01345-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段02295-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段00763-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段00486-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南郭段南郭小段 09622-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南郭段南郭小段 09623-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南郭段南郭小段 06598-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南郭段南郭小段 06597-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市箣桐段01058-000 建遗 ■</t>
+    <t>彰化縣彰化市田中央段00041000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段00931000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延和段01345000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段02295000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段00763000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段00486000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南郭段南郭小段09622000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南郭段南郭小段09623000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南郭段南郭小段06598000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南郭段南郭小段06597000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市箣桐段01058000建遗■</t>
   </si>
   <si>
     <t>彰化縣彰化市中山路</t>
   </si>
   <si>
-    <t>臺中市南屯區惠信段01788-000 建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市光南里16鄰中興 路</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠信段01885-000 建號</t>
-  </si>
-  <si>
-    <t>100000 分 之338</t>
-  </si>
-  <si>
-    <t>83年09月 22日</t>
-  </si>
-  <si>
-    <t>第一次登 記</t>
-  </si>
-  <si>
-    <t>(向土地 國有財產 局承租）</t>
-  </si>
-  <si>
-    <t>(超過五年，屋 頂突出物）</t>
-  </si>
-  <si>
-    <t>(超過五年,陽 台等5項）</t>
-  </si>
-  <si>
-    <t>(超過五年，陽 台等5項）</t>
-  </si>
-  <si>
-    <t>(超過五年’屋 頂突出物）</t>
-  </si>
-  <si>
-    <t>(超過五年,未 保存）</t>
-  </si>
-  <si>
-    <t>1,308,934(1^ 台，雨遮）</t>
-  </si>
-  <si>
-    <t>213,234(公共 設施）</t>
+    <t>臺中市南屯區惠信段01788000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市光南里16鄰中興路</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠信段01885000建號</t>
+  </si>
+  <si>
+    <t>100000分之338</t>
+  </si>
+  <si>
+    <t>83年09月22日</t>
+  </si>
+  <si>
+    <t>第一次登記</t>
+  </si>
+  <si>
+    <t>(向土地國有財產局承租）</t>
+  </si>
+  <si>
+    <t>(超過五年屋頂突出物）</t>
+  </si>
+  <si>
+    <t>(超過五年陽台等5項）</t>
+  </si>
+  <si>
+    <t>(超過五年未保存）</t>
+  </si>
+  <si>
+    <t>1308934(1台雨遮）</t>
+  </si>
+  <si>
+    <t>213234(公共設施）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -304,22 +349,22 @@
     <t>賓士</t>
   </si>
   <si>
-    <t>93年08月 10曰</t>
-  </si>
-  <si>
-    <t>90年09月 19曰</t>
-  </si>
-  <si>
-    <t>96年10月 03日</t>
-  </si>
-  <si>
-    <t>95年02月 20日</t>
-  </si>
-  <si>
-    <t>96年05月 25日</t>
-  </si>
-  <si>
-    <t>Cm3 7=fca- 貝貿</t>
+    <t>93年08月10曰</t>
+  </si>
+  <si>
+    <t>90年09月19曰</t>
+  </si>
+  <si>
+    <t>96年10月03日</t>
+  </si>
+  <si>
+    <t>95年02月20日</t>
+  </si>
+  <si>
+    <t>96年05月25日</t>
+  </si>
+  <si>
+    <t>Cm37=fca貝貿</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -340,37 +385,37 @@
     <t>臺灣銀行彰化分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行彰營分 行</t>
-  </si>
-  <si>
-    <t>合.作金庫商業銀行彰營分 行</t>
+    <t>合作金庫商業銀行彰營分行</t>
+  </si>
+  <si>
+    <t>合.作金庫商業銀行彰營分行</t>
   </si>
   <si>
     <t>臺灣土地銀行彰化分行</t>
   </si>
   <si>
-    <t>國泰世華商業銀行中彰分 行</t>
-  </si>
-  <si>
-    <t>彰化第五信用合作社營業 部</t>
-  </si>
-  <si>
-    <t>彰化第五信用合作社旭光 分社</t>
-  </si>
-  <si>
-    <t>彰化第十信用合作社營業 部</t>
+    <t>國泰世華商業銀行中彰分行</t>
+  </si>
+  <si>
+    <t>彰化第五信用合作社營業部</t>
+  </si>
+  <si>
+    <t>彰化第五信用合作社旭光分社</t>
+  </si>
+  <si>
+    <t>彰化第十信用合作社營業部</t>
   </si>
   <si>
     <t>元大商業銀行彰化分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司彰 化光復路郵局</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行南彰化 分行</t>
-  </si>
-  <si>
-    <t>彰化市農會大竹里彰南分 社</t>
+    <t>中華郵政股份有限公司彰化光復路郵局</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行南彰化分行</t>
+  </si>
+  <si>
+    <t>彰化市農會大竹里彰南分社</t>
   </si>
   <si>
     <t>綜合存款</t>
@@ -391,12 +436,6 @@
     <t>澳幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -409,27 +448,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>彰化第五信用合作社</t>
   </si>
   <si>
@@ -445,15 +463,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-27</t>
-  </si>
-  <si>
-    <t>tmp9bfb1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -472,13 +481,13 @@
     <t>外幣幣別</t>
   </si>
   <si>
-    <t>雙元雙利獲利 鎖利保本連動 債</t>
+    <t>雙元雙利獲利鎖利保本連動債</t>
   </si>
   <si>
     <t>DB06EQ0505</t>
   </si>
   <si>
-    <t>元大商業 銀行</t>
+    <t>元大商業銀行</t>
   </si>
   <si>
     <t>受託投資機構</t>
@@ -499,13 +508,13 @@
     <t>蘭坦公司債</t>
   </si>
   <si>
-    <t>霸菱全球資源-美元</t>
+    <t>霸菱全球資源美元</t>
   </si>
   <si>
     <t>霸菱拉丁美洲</t>
   </si>
   <si>
-    <t>先機亞太股票基 金美元</t>
+    <t>先機亞太股票基金美元</t>
   </si>
   <si>
     <t>首域印度基金</t>
@@ -514,55 +523,52 @@
     <t>景順中國基金</t>
   </si>
   <si>
-    <t>富蘭克林坦伯頓 拉丁美</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓 東歐美</t>
-  </si>
-  <si>
-    <t>保德信亞洲新興 債累積</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓 亞洲成</t>
+    <t>富蘭克林坦伯頓拉丁美</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓東歐美</t>
+  </si>
+  <si>
+    <t>保德信亞洲新興債累積</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓亞洲成</t>
   </si>
   <si>
     <t>潮亞印尼基金</t>
   </si>
   <si>
-    <t>富蘭坦伯頓大中 華基金</t>
-  </si>
-  <si>
-    <t>摩根富林天然資 源美元</t>
+    <t>富蘭坦伯頓大中華基金</t>
+  </si>
+  <si>
+    <t>摩根富林天然資源美元</t>
   </si>
   <si>
     <t>原物料投資美</t>
   </si>
   <si>
-    <t>元大商業銀行</t>
-  </si>
-  <si>
     <t>價額</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
   </si>
   <si>
     <t>黃金</t>
   </si>
   <si>
-    <t>-他具有相當價值之財產（總fl</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>他具有相當價值之財產（總fl</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>t額：新臺幣400, 000元）</t>
+    <t>t額：新臺幣400000元）</t>
   </si>
   <si>
     <t>價</t>
@@ -598,7 +604,7 @@
     <t>國華人壽定期终生壽險</t>
   </si>
   <si>
-    <t>郵政簡易人壽六年期吉利保 險</t>
+    <t>郵政簡易人壽六年期吉利保險</t>
   </si>
   <si>
     <t>郵政簡易人壽步步高升保險</t>
@@ -619,7 +625,7 @@
     <t>國泰312還本終身保險</t>
   </si>
   <si>
-    <t>國泰人壽富貴保本投資鏈結 壽險(甲型）</t>
+    <t>國泰人壽富貴保本投資鏈結壽險(甲型）</t>
   </si>
   <si>
     <t>國泰富利年年終身保險</t>
@@ -628,64 +634,64 @@
     <t>國泰添鑫終身壽險</t>
   </si>
   <si>
-    <t>元大商業銀行佳迪福電力無 限</t>
-  </si>
-  <si>
-    <t>元大商業銀行安聯人壽精選 普爾</t>
-  </si>
-  <si>
-    <t>保險期間:79.12_：21至終身,繳 費20年,年繳152,371元</t>
-  </si>
-  <si>
-    <t>保險期間:99.4.6至105.4.6,繳 費6年,年繳165,700元</t>
-  </si>
-  <si>
-    <t>保險期間:99.4.6至105.4.6,繳 費6年,年繳163,800元</t>
-  </si>
-  <si>
-    <t>保險期間:97.612 至 103.6.12, 繳費6年,年繳283,602元</t>
-  </si>
-  <si>
-    <t>保險期間:97.612 至 103.6.12, 繳費6年,年繳282,858元</t>
-  </si>
-  <si>
-    <t>保險期間:98.2.3至1CM.2.2,繳 費6年,年缴98,280元</t>
-  </si>
-  <si>
-    <t>保險期間:98.2.3至104.2.2,繳 費6年,年繳99,420元</t>
-  </si>
-  <si>
-    <t>保險期間:91.12.11至終身,繳 費20年,年繳3,480元</t>
-  </si>
-  <si>
-    <t>保險期間:91.12.11至終身,繳 費20年,年繳2,380元</t>
-  </si>
-  <si>
-    <t>保險期間:94.9.5至153.9.5,月 繳20,000元</t>
-  </si>
-  <si>
-    <t>保險期間9i.i2.il 費20年,年繳90,734元</t>
-  </si>
-  <si>
-    <t>保險期間91.12.11至终身i敦 費20年,年繳91,745元</t>
-  </si>
-  <si>
-    <t>评險期間91_12.11至終身,繳 費20年,年繳88,248元</t>
-  </si>
-  <si>
-    <t>保險期間:94.8.26 至 101.9.13, 躉繳100萬元</t>
-  </si>
-  <si>
-    <t>保險期間:98.2.26 至 108.2.26, 繳費10年,年繳266,500元</t>
-  </si>
-  <si>
-    <t>保險期間:98.2.26 至 108.2.26, 繳費10年,年繳114,780元</t>
-  </si>
-  <si>
-    <t>保險期間:96.3.29 至 106.3.29, 躉繳100萬元</t>
-  </si>
-  <si>
-    <t>保險期間:97.6.19 至 164.6.19, 躉繳1,788,703元</t>
+    <t>元大商業銀行佳迪福電力無限</t>
+  </si>
+  <si>
+    <t>元大商業銀行安聯人壽精選普爾</t>
+  </si>
+  <si>
+    <t>保險期間:79.12：21至終身繳費20年年繳152371元</t>
+  </si>
+  <si>
+    <t>保險期間:99.4.6至105.4.6繳費6年年繳165700元</t>
+  </si>
+  <si>
+    <t>保險期間:99.4.6至105.4.6繳費6年年繳163800元</t>
+  </si>
+  <si>
+    <t>保險期間:97.612至103.6.12繳費6年年繳283602元</t>
+  </si>
+  <si>
+    <t>保險期間:97.612至103.6.12繳費6年年繳282858元</t>
+  </si>
+  <si>
+    <t>保險期間:98.2.3至1CM.2.2繳費6年年缴98280元</t>
+  </si>
+  <si>
+    <t>保險期間:98.2.3至104.2.2繳費6年年繳99420元</t>
+  </si>
+  <si>
+    <t>保險期間:91.12.11至終身繳費20年年繳3480元</t>
+  </si>
+  <si>
+    <t>保險期間:91.12.11至終身繳費20年年繳2380元</t>
+  </si>
+  <si>
+    <t>保險期間:94.9.5至153.9.5月繳20000元</t>
+  </si>
+  <si>
+    <t>保險期間9i.i2.il費20年年繳90734元</t>
+  </si>
+  <si>
+    <t>保險期間91.12.11至终身i敦費20年年繳91745元</t>
+  </si>
+  <si>
+    <t>评險期間9112.11至終身繳費20年年繳88248元</t>
+  </si>
+  <si>
+    <t>保險期間:94.8.26至101.9.13躉繳100萬元</t>
+  </si>
+  <si>
+    <t>保險期間:98.2.26至108.2.26繳費10年年繳266500元</t>
+  </si>
+  <si>
+    <t>保險期間:98.2.26至108.2.26繳費10年年繳114780元</t>
+  </si>
+  <si>
+    <t>保險期間:96.3.29至106.3.29躉繳100萬元</t>
+  </si>
+  <si>
+    <t>保險期間:97.6.19至164.6.19躉繳1788703元</t>
   </si>
   <si>
     <t>債務人</t>
@@ -706,13 +712,13 @@
     <t>抵押貸款</t>
   </si>
   <si>
-    <t>合作金庫商業銀行彰營分行 彰化縣彰化市曉陽路</t>
-  </si>
-  <si>
-    <t>99年07月 30日</t>
-  </si>
-  <si>
-    <t>CEXJ7=ta- 貝賣</t>
+    <t>合作金庫商業銀行彰營分行彰化縣彰化市曉陽路</t>
+  </si>
+  <si>
+    <t>99年07月30日</t>
+  </si>
+  <si>
+    <t>CEXJ7=ta貝賣</t>
   </si>
 </sst>
 </file>
@@ -1071,13 +1077,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1099,551 +1105,1013 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1555.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>84</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>1269</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>375.92</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>642</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O17" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>1800</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="2">
         <v>32</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>175</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H19" s="2">
         <v>15136450</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>175</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H20" s="2">
         <v>12770975</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O20" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>166</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H21" s="2">
         <v>12187554</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O21" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>7389.18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H22" s="2">
         <v>1003458</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1661,22 +2129,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1684,22 +2152,22 @@
         <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E2" s="2">
         <v>6500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -1717,25 +2185,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1743,25 +2211,25 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2">
         <v>330.91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1769,25 +2237,25 @@
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2">
         <v>131.1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1795,25 +2263,25 @@
         <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2">
         <v>87.4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1821,25 +2289,25 @@
         <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2">
         <v>1167.7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1847,25 +2315,25 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2">
         <v>165</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1873,25 +2341,25 @@
         <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2">
         <v>111.2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1899,25 +2367,25 @@
         <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2">
         <v>291.3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1925,25 +2393,25 @@
         <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2">
         <v>383.1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1951,25 +2419,25 @@
         <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2">
         <v>228.6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1977,25 +2445,25 @@
         <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2">
         <v>228.6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2003,25 +2471,25 @@
         <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2">
         <v>164</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2029,25 +2497,25 @@
         <v>52</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2">
         <v>728</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2055,25 +2523,25 @@
         <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C14" s="2">
         <v>224.1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2081,25 +2549,25 @@
         <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C15" s="2">
         <v>132.8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2107,25 +2575,25 @@
         <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C16" s="2">
         <v>28275.55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2143,22 +2611,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2166,19 +2634,19 @@
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2">
         <v>809000</v>
@@ -2189,22 +2657,22 @@
         <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2">
         <v>2164</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2212,19 +2680,19 @@
         <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C4" s="2">
         <v>3456</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2">
         <v>1776000</v>
@@ -2235,19 +2703,19 @@
         <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2">
         <v>1794</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2">
         <v>572000</v>
@@ -2258,19 +2726,19 @@
         <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2">
         <v>3498</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G6" s="2">
         <v>3212000</v>
@@ -2291,22 +2759,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2314,16 +2782,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -2335,16 +2803,16 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -2356,16 +2824,16 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -2377,16 +2845,16 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -2398,16 +2866,16 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -2419,16 +2887,16 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -2440,16 +2908,16 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -2461,16 +2929,16 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -2482,16 +2950,16 @@
         <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -2503,16 +2971,16 @@
         <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -2524,16 +2992,16 @@
         <v>95</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -2545,16 +3013,16 @@
         <v>96</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -2566,16 +3034,16 @@
         <v>97</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -2587,16 +3055,16 @@
         <v>98</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2">
         <v>30819.75</v>
@@ -2610,16 +3078,16 @@
         <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -2631,16 +3099,16 @@
         <v>100</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2">
         <v>1354.74</v>
@@ -2664,43 +3132,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2708,10 +3176,10 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2">
         <v>700</v>
@@ -2720,28 +3188,28 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G2" s="2">
         <v>70000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2">
         <v>1338</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="N2" s="2">
         <v>107</v>
@@ -2752,10 +3220,10 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2">
         <v>20</v>
@@ -2764,28 +3232,28 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G3" s="2">
         <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2">
         <v>1338</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="N3" s="2">
         <v>108</v>
@@ -2796,10 +3264,10 @@
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2">
         <v>30000</v>
@@ -2808,28 +3276,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G4" s="2">
         <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L4" s="2">
         <v>1338</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="N4" s="2">
         <v>109</v>
@@ -2840,10 +3308,10 @@
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2">
         <v>100</v>
@@ -2852,28 +3320,28 @@
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G5" s="2">
         <v>10000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2">
         <v>1338</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="N5" s="2">
         <v>110</v>
@@ -2884,10 +3352,10 @@
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2">
         <v>100</v>
@@ -2896,28 +3364,28 @@
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L6" s="2">
         <v>1338</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="N6" s="2">
         <v>111</v>
@@ -2938,28 +3406,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2967,16 +3435,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F2" s="2">
         <v>5</v>
@@ -2985,7 +3453,7 @@
         <v>10000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="I2" s="2">
         <v>1459700</v>
@@ -3006,25 +3474,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3032,13 +3500,13 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E2" s="2">
         <v>47.032</v>
@@ -3047,7 +3515,7 @@
         <v>103.5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H2" s="2">
         <v>142110.9</v>
@@ -3058,13 +3526,13 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2">
         <v>181.75</v>
@@ -3073,7 +3541,7 @@
         <v>20.66</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H3" s="2">
         <v>109622.15</v>
@@ -3084,13 +3552,13 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E4" s="2">
         <v>160.87</v>
@@ -3099,7 +3567,7 @@
         <v>23.53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H4" s="2">
         <v>110507.2</v>
@@ -3110,13 +3578,13 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E5" s="2">
         <v>217.15</v>
@@ -3125,7 +3593,7 @@
         <v>23.53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H5" s="2">
         <v>149167.89</v>
@@ -3136,13 +3604,13 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E6" s="2">
         <v>189.791</v>
@@ -3151,7 +3619,7 @@
         <v>6.88</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H6" s="2">
         <v>38120.41</v>
@@ -3162,13 +3630,13 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E7" s="2">
         <v>108.861</v>
@@ -3177,7 +3645,7 @@
         <v>25.11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H7" s="2">
         <v>79801.79</v>
@@ -3188,13 +3656,13 @@
         <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E8" s="2">
         <v>78.308</v>
@@ -3203,7 +3671,7 @@
         <v>47.03</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H8" s="2">
         <v>107516.4</v>
@@ -3214,13 +3682,13 @@
         <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E9" s="2">
         <v>1031.299</v>
@@ -3229,7 +3697,7 @@
         <v>2.9281</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H9" s="2">
         <v>88158.48</v>
@@ -3240,13 +3708,13 @@
         <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E10" s="2">
         <v>134.789</v>
@@ -3255,7 +3723,7 @@
         <v>41.04</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H10" s="2">
         <v>161493.63</v>
@@ -3266,13 +3734,13 @@
         <v>131</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E11" s="2">
         <v>116.88</v>
@@ -3281,7 +3749,7 @@
         <v>44.02</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H11" s="2">
         <v>150204.81</v>
@@ -3292,13 +3760,13 @@
         <v>132</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E12" s="2">
         <v>69.951</v>
@@ -3307,7 +3775,7 @@
         <v>78.18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H12" s="2">
         <v>159655.24</v>
@@ -3318,13 +3786,13 @@
         <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E13" s="2">
         <v>160.81</v>
@@ -3333,7 +3801,7 @@
         <v>28.68</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H13" s="2">
         <v>134643.62</v>
@@ -3344,13 +3812,13 @@
         <v>134</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E14" s="2">
         <v>50000</v>
@@ -3359,7 +3827,7 @@
         <v>10.0987</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="H14" s="2">
         <v>504935</v>
@@ -3370,13 +3838,13 @@
         <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E15" s="2">
         <v>108.453</v>
@@ -3385,7 +3853,7 @@
         <v>31.15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H15" s="2">
         <v>98626.4</v>
@@ -3396,13 +3864,13 @@
         <v>136</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E16" s="2">
         <v>184.302</v>
@@ -3411,7 +3879,7 @@
         <v>19.273</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H16" s="2">
         <v>103698.61</v>
@@ -3422,13 +3890,13 @@
         <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E17" s="2">
         <v>140.375</v>
@@ -3437,7 +3905,7 @@
         <v>23.33</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H17" s="2">
         <v>95608.85</v>
@@ -3448,13 +3916,13 @@
         <v>138</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E18" s="2">
         <v>185.784</v>
@@ -3463,7 +3931,7 @@
         <v>15.94</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H18" s="2">
         <v>86455.02</v>
@@ -3474,13 +3942,13 @@
         <v>139</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E19" s="2">
         <v>3.333</v>
@@ -3489,7 +3957,7 @@
         <v>945.5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H19" s="2">
         <v>92000.55</v>
@@ -3500,13 +3968,13 @@
         <v>140</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E20" s="2">
         <v>34.357</v>
@@ -3515,7 +3983,7 @@
         <v>103.5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H20" s="2">
         <v>103812.38</v>
@@ -3536,22 +4004,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3559,14 +4027,14 @@
         <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3576,22 +4044,22 @@
         <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3599,14 +4067,14 @@
         <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2">
         <v>400000</v>
@@ -3628,16 +4096,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3645,16 +4113,16 @@
         <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3662,16 +4130,16 @@
         <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3679,16 +4147,16 @@
         <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3696,16 +4164,16 @@
         <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3713,16 +4181,16 @@
         <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3730,16 +4198,16 @@
         <v>162</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3747,16 +4215,16 @@
         <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3764,16 +4232,16 @@
         <v>164</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3781,16 +4249,16 @@
         <v>165</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3798,16 +4266,16 @@
         <v>166</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3815,16 +4283,16 @@
         <v>167</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3832,16 +4300,16 @@
         <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3849,16 +4317,16 @@
         <v>169</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3866,16 +4334,16 @@
         <v>170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3883,16 +4351,16 @@
         <v>171</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3900,16 +4368,16 @@
         <v>172</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3917,16 +4385,16 @@
         <v>173</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3934,16 +4402,16 @@
         <v>174</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
+++ b/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="199">
   <si>
     <t>name</t>
   </si>
@@ -67,7 +67,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>彰化縣彰化市萬興段07870000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>彰化縣彰化市延和段01280000地號</t>
@@ -130,132 +133,111 @@
     <t>臺中市南屯區惠信段01180000地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之30</t>
+  </si>
+  <si>
+    <t>林滄敏</t>
+  </si>
+  <si>
+    <t>林施金玉</t>
+  </si>
+  <si>
+    <t>林施余玉</t>
+  </si>
+  <si>
+    <t>81年05月19曰</t>
+  </si>
+  <si>
+    <t>81年05月19日</t>
+  </si>
+  <si>
+    <t>78年12月11曰</t>
+  </si>
+  <si>
+    <t>79年05月02日</t>
+  </si>
+  <si>
+    <t>81年10月19日</t>
+  </si>
+  <si>
+    <t>78年05月09日</t>
+  </si>
+  <si>
+    <t>84年12月23日</t>
+  </si>
+  <si>
+    <t>85年05月20日</t>
+  </si>
+  <si>
+    <t>86年03月28日</t>
+  </si>
+  <si>
+    <t>85年06月05日</t>
+  </si>
+  <si>
+    <t>89年01月12日</t>
+  </si>
+  <si>
+    <t>87年06月18日</t>
+  </si>
+  <si>
+    <t>88年10月</t>
+  </si>
+  <si>
+    <t>88年10月29日</t>
+  </si>
+  <si>
+    <t>88年06月08日</t>
+  </si>
+  <si>
+    <t>94年08月19日</t>
+  </si>
+  <si>
+    <t>94年05月18曰</t>
+  </si>
+  <si>
+    <t>95年11月08日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>[333=貝賈</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-27</t>
+  </si>
+  <si>
+    <t>tmp9bfb1</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市田中央段00041000建號</t>
+  </si>
+  <si>
     <t>4分之1</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之30</t>
-  </si>
-  <si>
-    <t>林滄敏</t>
-  </si>
-  <si>
-    <t>林施金玉</t>
-  </si>
-  <si>
-    <t>林施余玉</t>
-  </si>
-  <si>
     <t>81年03月20日</t>
   </si>
   <si>
-    <t>81年05月19曰</t>
-  </si>
-  <si>
-    <t>81年05月19日</t>
-  </si>
-  <si>
-    <t>78年12月11曰</t>
-  </si>
-  <si>
-    <t>79年05月02日</t>
-  </si>
-  <si>
-    <t>81年10月19日</t>
-  </si>
-  <si>
-    <t>78年05月09日</t>
-  </si>
-  <si>
-    <t>84年12月23日</t>
-  </si>
-  <si>
-    <t>85年05月20日</t>
-  </si>
-  <si>
-    <t>86年03月28日</t>
-  </si>
-  <si>
-    <t>85年06月05日</t>
-  </si>
-  <si>
-    <t>89年01月12日</t>
-  </si>
-  <si>
-    <t>87年06月18日</t>
-  </si>
-  <si>
-    <t>88年10月</t>
-  </si>
-  <si>
-    <t>88年10月29日</t>
-  </si>
-  <si>
-    <t>88年06月08日</t>
-  </si>
-  <si>
-    <t>94年08月19日</t>
-  </si>
-  <si>
-    <t>94年05月18曰</t>
-  </si>
-  <si>
-    <t>95年11月08日</t>
-  </si>
-  <si>
     <t>繼承</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>[333=貝賈</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-27</t>
-  </si>
-  <si>
-    <t>tmp9bfb1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市田中央段00041000建號</t>
-  </si>
-  <si>
     <t>彰化縣彰化市延平段00931000建號</t>
   </si>
   <si>
@@ -325,273 +307,213 @@
     <t>213234(公共設施）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
+    <t>中華</t>
+  </si>
+  <si>
+    <t>93年08月10曰</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>豐田</t>
+  </si>
+  <si>
+    <t>國瑞</t>
+  </si>
+  <si>
+    <t>賓士</t>
+  </si>
+  <si>
+    <t>90年09月19曰</t>
+  </si>
+  <si>
+    <t>96年10月03日</t>
+  </si>
+  <si>
+    <t>95年02月20日</t>
+  </si>
+  <si>
+    <t>96年05月25日</t>
+  </si>
+  <si>
+    <t>Cm37=fca貝貿</t>
+  </si>
+  <si>
+    <t>臺灣銀行彰化分行</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行彰營分行</t>
+  </si>
+  <si>
+    <t>合.作金庫商業銀行彰營分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行彰化分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行中彰分行</t>
+  </si>
+  <si>
+    <t>彰化第五信用合作社營業部</t>
+  </si>
+  <si>
+    <t>彰化第五信用合作社旭光分社</t>
+  </si>
+  <si>
+    <t>彰化第十信用合作社營業部</t>
+  </si>
+  <si>
+    <t>元大商業銀行彰化分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司彰化光復路郵局</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行南彰化分行</t>
+  </si>
+  <si>
+    <t>彰化市農會大竹里彰南分社</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>澳幣</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>彰化第一信用合作社</t>
+  </si>
+  <si>
+    <t>彰化高爾夫股份有限公司</t>
+  </si>
+  <si>
+    <t>彰化第十信用合作社</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>雙元雙利獲利鎖利保本連動債</t>
+  </si>
+  <si>
+    <t>DB06EQ0505</t>
+  </si>
+  <si>
+    <t>元大商業銀行</t>
+  </si>
+  <si>
+    <t>JF東協基金</t>
+  </si>
+  <si>
+    <t>富新興市場</t>
+  </si>
+  <si>
+    <t>景順韓國</t>
+  </si>
+  <si>
+    <t>蘭坦公司債</t>
+  </si>
+  <si>
+    <t>霸菱全球資源美元</t>
+  </si>
+  <si>
+    <t>霸菱拉丁美洲</t>
+  </si>
+  <si>
+    <t>先機亞太股票基金美元</t>
+  </si>
+  <si>
+    <t>首域印度基金</t>
+  </si>
+  <si>
+    <t>景順中國基金</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓拉丁美</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓東歐美</t>
+  </si>
+  <si>
+    <t>保德信亞洲新興債累積</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓亞洲成</t>
+  </si>
+  <si>
+    <t>潮亞印尼基金</t>
+  </si>
+  <si>
+    <t>富蘭坦伯頓大中華基金</t>
+  </si>
+  <si>
+    <t>摩根富林天然資源美元</t>
+  </si>
+  <si>
+    <t>原物料投資美</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總fl</t>
+  </si>
+  <si>
+    <t>t額：新臺幣400000元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>黃金</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>中華</t>
-  </si>
-  <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
-    <t>豐田</t>
-  </si>
-  <si>
-    <t>國瑞</t>
-  </si>
-  <si>
-    <t>賓士</t>
-  </si>
-  <si>
-    <t>93年08月10曰</t>
-  </si>
-  <si>
-    <t>90年09月19曰</t>
-  </si>
-  <si>
-    <t>96年10月03日</t>
-  </si>
-  <si>
-    <t>95年02月20日</t>
-  </si>
-  <si>
-    <t>96年05月25日</t>
-  </si>
-  <si>
-    <t>Cm37=fca貝貿</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>臺灣銀行彰化分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行彰營分行</t>
-  </si>
-  <si>
-    <t>合.作金庫商業銀行彰營分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行彰化分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行中彰分行</t>
-  </si>
-  <si>
-    <t>彰化第五信用合作社營業部</t>
-  </si>
-  <si>
-    <t>彰化第五信用合作社旭光分社</t>
-  </si>
-  <si>
-    <t>彰化第十信用合作社營業部</t>
-  </si>
-  <si>
-    <t>元大商業銀行彰化分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司彰化光復路郵局</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行南彰化分行</t>
-  </si>
-  <si>
-    <t>彰化市農會大竹里彰南分社</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>澳幣</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>彰化第五信用合作社</t>
-  </si>
-  <si>
-    <t>彰化第一信用合作社</t>
-  </si>
-  <si>
-    <t>彰化高爾夫股份有限公司</t>
-  </si>
-  <si>
-    <t>彰化第十信用合作社</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>代碼</t>
-  </si>
-  <si>
-    <t>買賣機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
-    <t>雙元雙利獲利鎖利保本連動債</t>
-  </si>
-  <si>
-    <t>DB06EQ0505</t>
-  </si>
-  <si>
-    <t>元大商業銀行</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>JF東協基金</t>
-  </si>
-  <si>
-    <t>富新興市場</t>
-  </si>
-  <si>
-    <t>景順韓國</t>
-  </si>
-  <si>
-    <t>蘭坦公司債</t>
-  </si>
-  <si>
-    <t>霸菱全球資源美元</t>
-  </si>
-  <si>
-    <t>霸菱拉丁美洲</t>
-  </si>
-  <si>
-    <t>先機亞太股票基金美元</t>
-  </si>
-  <si>
-    <t>首域印度基金</t>
-  </si>
-  <si>
-    <t>景順中國基金</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓拉丁美</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓東歐美</t>
-  </si>
-  <si>
-    <t>保德信亞洲新興債累積</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓亞洲成</t>
-  </si>
-  <si>
-    <t>潮亞印尼基金</t>
-  </si>
-  <si>
-    <t>富蘭坦伯頓大中華基金</t>
-  </si>
-  <si>
-    <t>摩根富林天然資源美元</t>
-  </si>
-  <si>
-    <t>原物料投資美</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>黃金</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總fl</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>t額：新臺幣400000元）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>國華人壽</t>
   </si>
   <si>
+    <t>國華人壽定期终生壽險</t>
+  </si>
+  <si>
+    <t>保險期間:79.12：21至終身繳費20年年繳152371元</t>
+  </si>
+  <si>
     <t>中華郵政</t>
   </si>
   <si>
@@ -601,9 +523,6 @@
     <t>新光人爵</t>
   </si>
   <si>
-    <t>國華人壽定期终生壽險</t>
-  </si>
-  <si>
     <t>郵政簡易人壽六年期吉利保險</t>
   </si>
   <si>
@@ -640,9 +559,6 @@
     <t>元大商業銀行安聯人壽精選普爾</t>
   </si>
   <si>
-    <t>保險期間:79.12：21至終身繳費20年年繳152371元</t>
-  </si>
-  <si>
     <t>保險期間:99.4.6至105.4.6繳費6年年繳165700元</t>
   </si>
   <si>
@@ -692,21 +608,6 @@
   </si>
   <si>
     <t>保險期間:97.6.19至164.6.19躉繳1788703元</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>抵押貸款</t>
@@ -1077,13 +978,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,19 +1027,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1555.5</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>38</v>
@@ -1147,19 +1054,19 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>38</v>
@@ -1168,21 +1075,27 @@
         <v>1338</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>36</v>
@@ -1194,19 +1107,19 @@
         <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
@@ -1215,45 +1128,51 @@
         <v>1338</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>38</v>
@@ -1262,18 +1181,24 @@
         <v>1338</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>89</v>
@@ -1288,19 +1213,19 @@
         <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>38</v>
@@ -1309,21 +1234,27 @@
         <v>1338</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>36</v>
@@ -1335,19 +1266,19 @@
         <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>38</v>
@@ -1356,21 +1287,27 @@
         <v>1338</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
@@ -1382,19 +1319,19 @@
         <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>38</v>
@@ -1403,21 +1340,27 @@
         <v>1338</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>36</v>
@@ -1429,19 +1372,19 @@
         <v>47</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>38</v>
@@ -1450,21 +1393,27 @@
         <v>1338</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>36</v>
@@ -1476,19 +1425,19 @@
         <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>38</v>
@@ -1497,18 +1446,24 @@
         <v>1338</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
         <v>67</v>
@@ -1523,19 +1478,19 @@
         <v>49</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>38</v>
@@ -1544,21 +1499,27 @@
         <v>1338</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>67</v>
+        <v>1269</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
@@ -1570,19 +1531,19 @@
         <v>50</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>38</v>
@@ -1591,21 +1552,27 @@
         <v>1338</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>1269</v>
+        <v>375.92</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>36</v>
@@ -1614,22 +1581,22 @@
         <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>38</v>
@@ -1638,21 +1605,27 @@
         <v>1338</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>375.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>375.92</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>36</v>
@@ -1664,19 +1637,19 @@
         <v>51</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>38</v>
@@ -1685,21 +1658,27 @@
         <v>1338</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>8</v>
+        <v>642</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>36</v>
@@ -1711,19 +1690,19 @@
         <v>52</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>38</v>
@@ -1732,21 +1711,27 @@
         <v>1338</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>642</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>36</v>
@@ -1758,19 +1743,19 @@
         <v>53</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>38</v>
@@ -1779,18 +1764,24 @@
         <v>1338</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
         <v>62</v>
@@ -1805,19 +1796,19 @@
         <v>54</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>38</v>
@@ -1826,21 +1817,27 @@
         <v>1338</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" s="2">
-        <v>62</v>
+        <v>1800</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>36</v>
@@ -1852,19 +1849,19 @@
         <v>55</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>38</v>
@@ -1873,45 +1870,51 @@
         <v>1338</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O17" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" s="2">
-        <v>1800</v>
+        <v>175</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>56</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="2">
+        <v>15136450</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>38</v>
@@ -1920,18 +1923,24 @@
         <v>1338</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>175</v>
@@ -1940,25 +1949,25 @@
         <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H19" s="2">
-        <v>15136450</v>
+        <v>12770975</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>38</v>
@@ -1967,21 +1976,27 @@
         <v>1338</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O19" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>36</v>
@@ -1990,22 +2005,22 @@
         <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H20" s="2">
-        <v>12770975</v>
+        <v>12187554</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>38</v>
@@ -2014,45 +2029,51 @@
         <v>1338</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O20" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" s="2">
-        <v>166</v>
+        <v>7389.18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>61</v>
       </c>
       <c r="H21" s="2">
-        <v>12187554</v>
+        <v>1003458</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>38</v>
@@ -2061,57 +2082,16 @@
         <v>1338</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1">
         <v>36</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="2">
-        <v>7389.18</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1003458</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M22" s="2">
-        <v>1338</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O22" s="2">
-        <v>36</v>
+      <c r="P21" s="2">
+        <v>0.003</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>22.16754</v>
       </c>
     </row>
   </sheetData>
@@ -2121,7 +2101,440 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="1">
+        <v>6500000</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1">
+        <v>330.91</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2">
+        <v>131.1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2">
+        <v>87.4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1167.7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2">
+        <v>165</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>46</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="2">
+        <v>111.2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="2">
+        <v>291.3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="2">
+        <v>383.1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>49</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2">
+        <v>228.6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="2">
+        <v>228.6</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>51</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="2">
+        <v>164</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>52</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="2">
+        <v>728</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="2">
+        <v>224.1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="2">
+        <v>132.8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="2">
+        <v>28275.55</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2129,45 +2542,114 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>223</v>
+        <v>94</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1997</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>224</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>227</v>
+        <v>59</v>
+      </c>
+      <c r="G1" s="1">
+        <v>809000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>184</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>96</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E2" s="2">
-        <v>6500000</v>
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>230</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>231</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3456</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1776000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1794</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="2">
+        <v>572000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3498</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3212000</v>
       </c>
     </row>
   </sheetData>
@@ -2175,435 +2657,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="2">
-        <v>330.91</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>42</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="2">
-        <v>131.1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>43</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="2">
-        <v>87.4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>44</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1167.7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>45</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="2">
-        <v>165</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>46</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="2">
-        <v>111.2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>47</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="2">
-        <v>291.3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>48</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="2">
-        <v>383.1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>49</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="2">
-        <v>228.6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>50</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="2">
-        <v>228.6</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>51</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="2">
-        <v>164</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>52</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="2">
-        <v>728</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>53</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="2">
-        <v>224.1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>55</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="2">
-        <v>132.8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>56</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="2">
-        <v>28275.55</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2611,509 +2667,338 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>38</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>2122758</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1997</v>
+        <v>105</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>809000</v>
+        <v>145076</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2164</v>
+        <v>108</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>38</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>1960124</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3456</v>
+        <v>109</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>1776000</v>
+        <v>310573</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1794</v>
+        <v>110</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>572000</v>
+        <v>122624</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3498</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3212000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>2122758</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>85</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>145076</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>86</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>1960124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>87</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>310573</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>88</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>122624</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>1142</v>
+        <v>23557</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>23557</v>
+        <v>102961</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>102961</v>
+        <v>13989</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>13989</v>
+        <v>160026</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>160026</v>
+        <v>961516</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>961516</v>
+        <v>149298</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>149298</v>
+        <v>459537</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="F14" s="2">
+        <v>30819.75</v>
+      </c>
       <c r="G14" s="2">
-        <v>459537</v>
+        <v>899751.78</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="2">
-        <v>30819.75</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2">
-        <v>899751.78</v>
+        <v>100239</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1354.74</v>
+      </c>
       <c r="G16" s="2">
-        <v>100239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>100</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1354.74</v>
-      </c>
-      <c r="G17" s="2">
         <v>40940.24</v>
       </c>
     </row>
@@ -3124,7 +3009,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3138,16 +3023,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -3173,34 +3058,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="2">
-        <v>700</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G2" s="2">
-        <v>70000</v>
+        <v>2000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>38</v>
@@ -3209,42 +3094,42 @@
         <v>1338</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N2" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2">
-        <v>20</v>
+        <v>30000</v>
       </c>
       <c r="E3" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2">
-        <v>2000</v>
+        <v>300000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>38</v>
@@ -3253,42 +3138,42 @@
         <v>1338</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N3" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="E4" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G4" s="2">
-        <v>300000</v>
+        <v>10000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>38</v>
@@ -3297,21 +3182,21 @@
         <v>1338</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N4" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2">
         <v>100</v>
@@ -3320,19 +3205,19 @@
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="G5" s="2">
         <v>10000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>38</v>
@@ -3341,53 +3226,9 @@
         <v>1338</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N5" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>111</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2">
-        <v>100</v>
-      </c>
-      <c r="E6" s="2">
-        <v>100</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="2">
-        <v>10000</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1338</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N6" s="2">
         <v>111</v>
       </c>
     </row>
@@ -3398,64 +3239,35 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="B1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="2:9">
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>132</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>10000</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>116</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="2">
+        <v>121</v>
+      </c>
+      <c r="I1" s="1">
         <v>1459700</v>
       </c>
     </row>
@@ -3466,7 +3278,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3474,518 +3286,492 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
+      </c>
+      <c r="E1" s="1">
+        <v>47.032</v>
+      </c>
+      <c r="F1" s="1">
+        <v>103.5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
+      </c>
+      <c r="H1" s="1">
+        <v>142110.9</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>122</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="2">
+        <v>181.75</v>
+      </c>
+      <c r="F2" s="2">
+        <v>20.66</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="2">
-        <v>47.032</v>
-      </c>
-      <c r="F2" s="2">
-        <v>103.5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="H2" s="2">
-        <v>142110.9</v>
+        <v>109622.15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2">
-        <v>181.75</v>
+        <v>160.87</v>
       </c>
       <c r="F3" s="2">
-        <v>20.66</v>
+        <v>23.53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H3" s="2">
-        <v>109622.15</v>
+        <v>110507.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E4" s="2">
-        <v>160.87</v>
+        <v>217.15</v>
       </c>
       <c r="F4" s="2">
         <v>23.53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H4" s="2">
-        <v>110507.2</v>
+        <v>149167.89</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E5" s="2">
-        <v>217.15</v>
+        <v>189.791</v>
       </c>
       <c r="F5" s="2">
-        <v>23.53</v>
+        <v>6.88</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H5" s="2">
-        <v>149167.89</v>
+        <v>38120.41</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E6" s="2">
-        <v>189.791</v>
+        <v>108.861</v>
       </c>
       <c r="F6" s="2">
-        <v>6.88</v>
+        <v>25.11</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H6" s="2">
-        <v>38120.41</v>
+        <v>79801.79</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E7" s="2">
-        <v>108.861</v>
+        <v>78.308</v>
       </c>
       <c r="F7" s="2">
-        <v>25.11</v>
+        <v>47.03</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H7" s="2">
-        <v>79801.79</v>
+        <v>107516.4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E8" s="2">
-        <v>78.308</v>
+        <v>1031.299</v>
       </c>
       <c r="F8" s="2">
-        <v>47.03</v>
+        <v>2.9281</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H8" s="2">
-        <v>107516.4</v>
+        <v>88158.48</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2">
-        <v>1031.299</v>
+        <v>134.789</v>
       </c>
       <c r="F9" s="2">
-        <v>2.9281</v>
+        <v>41.04</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H9" s="2">
-        <v>88158.48</v>
+        <v>161493.63</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2">
-        <v>134.789</v>
+        <v>116.88</v>
       </c>
       <c r="F10" s="2">
-        <v>41.04</v>
+        <v>44.02</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H10" s="2">
-        <v>161493.63</v>
+        <v>150204.81</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E11" s="2">
-        <v>116.88</v>
+        <v>69.951</v>
       </c>
       <c r="F11" s="2">
-        <v>44.02</v>
+        <v>78.18</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H11" s="2">
-        <v>150204.81</v>
+        <v>159655.24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
+        <v>133</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="E12" s="2">
-        <v>69.951</v>
+        <v>160.81</v>
       </c>
       <c r="F12" s="2">
-        <v>78.18</v>
+        <v>28.68</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H12" s="2">
-        <v>159655.24</v>
+        <v>134643.62</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E13" s="2">
-        <v>160.81</v>
+        <v>50000</v>
       </c>
       <c r="F13" s="2">
-        <v>28.68</v>
+        <v>10.0987</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="H13" s="2">
-        <v>134643.62</v>
+        <v>504935</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2">
-        <v>50000</v>
+        <v>108.453</v>
       </c>
       <c r="F14" s="2">
-        <v>10.0987</v>
+        <v>31.15</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="H14" s="2">
-        <v>504935</v>
+        <v>98626.4</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E15" s="2">
-        <v>108.453</v>
+        <v>184.302</v>
       </c>
       <c r="F15" s="2">
-        <v>31.15</v>
+        <v>19.273</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H15" s="2">
-        <v>98626.4</v>
+        <v>103698.61</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E16" s="2">
-        <v>184.302</v>
+        <v>140.375</v>
       </c>
       <c r="F16" s="2">
-        <v>19.273</v>
+        <v>23.33</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H16" s="2">
-        <v>103698.61</v>
+        <v>95608.85</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E17" s="2">
-        <v>140.375</v>
+        <v>185.784</v>
       </c>
       <c r="F17" s="2">
-        <v>23.33</v>
+        <v>15.94</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H17" s="2">
-        <v>95608.85</v>
+        <v>86455.02</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E18" s="2">
-        <v>185.784</v>
+        <v>3.333</v>
       </c>
       <c r="F18" s="2">
-        <v>15.94</v>
+        <v>945.5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H18" s="2">
-        <v>86455.02</v>
+        <v>92000.55</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E19" s="2">
-        <v>3.333</v>
+        <v>34.357</v>
       </c>
       <c r="F19" s="2">
-        <v>945.5</v>
+        <v>103.5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="H19" s="2">
-        <v>92000.55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>140</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="2">
-        <v>34.357</v>
-      </c>
-      <c r="F20" s="2">
-        <v>103.5</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H20" s="2">
         <v>103812.38</v>
       </c>
     </row>
@@ -3996,7 +3782,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4004,82 +3790,59 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>149</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>118</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>400000</v>
+      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>151</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="2">
-        <v>400000</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4088,7 +3851,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4096,322 +3859,305 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
+        <v>165</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
+        <v>166</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>174</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
+++ b/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="201">
   <si>
     <t>name</t>
   </si>
@@ -73,6 +73,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>彰化縣彰化市萬興段07870000地號</t>
+  </si>
+  <si>
     <t>彰化縣彰化市延和段01280000地號</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
     <t>臺中市南屯區惠信段01180000地號</t>
   </si>
   <si>
+    <t>4分之1</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
@@ -148,6 +154,9 @@
     <t>林施余玉</t>
   </si>
   <si>
+    <t>81年03月20日</t>
+  </si>
+  <si>
     <t>81年05月19曰</t>
   </si>
   <si>
@@ -202,6 +211,9 @@
     <t>95年11月08日</t>
   </si>
   <si>
+    <t>繼承</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
@@ -229,15 +241,6 @@
     <t>彰化縣彰化市田中央段00041000建號</t>
   </si>
   <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>81年03月20日</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
     <t>彰化縣彰化市延平段00931000建號</t>
   </si>
   <si>
@@ -401,6 +404,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>彰化第五信用合作社</t>
   </si>
   <si>
     <t>彰化第一信用合作社</t>
@@ -978,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,166 +1042,166 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>100</v>
+        <v>1555.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="2">
         <v>1338</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="Q2" s="2">
-        <v>100</v>
+        <v>388.875</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M3" s="2">
         <v>1338</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M4" s="2">
         <v>1338</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>89</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
@@ -1204,40 +1210,40 @@
         <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M5" s="2">
         <v>1338</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
@@ -1248,219 +1254,219 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M6" s="2">
         <v>1338</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M7" s="2">
         <v>1338</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
       </c>
       <c r="Q7" s="2">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M8" s="2">
         <v>1338</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
+        <v>84</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M9" s="2">
         <v>1338</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
@@ -1469,40 +1475,40 @@
         <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M10" s="2">
         <v>1338</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
@@ -1513,272 +1519,272 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>1269</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M11" s="2">
         <v>1338</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
         <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>1269</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>375.92</v>
+        <v>1269</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M12" s="2">
         <v>1338</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
         <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>375.92</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>8</v>
+        <v>375.92</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M13" s="2">
         <v>1338</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
         <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>8</v>
+        <v>375.92</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>642</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M14" s="2">
         <v>1338</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
         <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>642</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>62</v>
+        <v>642</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M15" s="2">
         <v>1338</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
         <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>62</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
@@ -1787,40 +1793,40 @@
         <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M16" s="2">
         <v>1338</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O16" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
         <v>1</v>
@@ -1831,113 +1837,113 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>1800</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M17" s="2">
         <v>1338</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O17" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" s="2">
         <v>1</v>
       </c>
       <c r="Q17" s="2">
-        <v>1800</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>175</v>
+        <v>1800</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="2">
-        <v>15136450</v>
+        <v>63</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M18" s="2">
         <v>1338</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O18" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2">
         <v>1</v>
       </c>
       <c r="Q18" s="2">
-        <v>175</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
@@ -1946,40 +1952,40 @@
         <v>175</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H19" s="2">
-        <v>12770975</v>
+        <v>15136450</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M19" s="2">
         <v>1338</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O19" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P19" s="2">
         <v>1</v>
@@ -1990,107 +1996,160 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H20" s="2">
-        <v>12187554</v>
+        <v>12770975</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M20" s="2">
         <v>1338</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O20" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P20" s="2">
         <v>1</v>
       </c>
       <c r="Q20" s="2">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>7389.18</v>
+        <v>166</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H21" s="2">
-        <v>1003458</v>
+        <v>12187554</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M21" s="2">
         <v>1338</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O21" s="2">
+        <v>35</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1">
         <v>36</v>
       </c>
-      <c r="P21" s="2">
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2">
+        <v>7389.18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1003458</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O22" s="2">
+        <v>36</v>
+      </c>
+      <c r="P22" s="2">
         <v>0.003</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="Q22" s="2">
         <v>22.16754</v>
       </c>
     </row>
@@ -2101,30 +2160,53 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E1" s="1">
         <v>6500000</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>184</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>198</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6500000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2134,246 +2216,489 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="1">
-        <v>330.91</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="2">
-        <v>131.1</v>
+        <v>330.91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="2">
+        <v>41</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>82.7275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="2">
-        <v>87.4</v>
+        <v>131.1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="2">
         <v>42</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>131.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C4" s="2">
-        <v>1167.7</v>
+        <v>87.4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="2">
+        <v>43</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>87.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C5" s="2">
-        <v>165</v>
+        <v>1167.7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="2">
+        <v>44</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1167.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
         <v>45</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C6" s="2">
-        <v>111.2</v>
+        <v>165</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="2">
+        <v>45</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C7" s="2">
-        <v>291.3</v>
+        <v>111.2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>66</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="2">
+        <v>46</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>111.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="2">
-        <v>383.1</v>
+        <v>291.3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="2">
+        <v>47</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>291.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
         <v>48</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="2">
-        <v>228.6</v>
+        <v>383.1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="2">
+        <v>48</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>383.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>79</v>
@@ -2382,149 +2707,364 @@
         <v>228.6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="2">
+        <v>49</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>228.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="2">
-        <v>164</v>
+        <v>228.6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="2">
+        <v>50</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>228.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="2">
-        <v>728</v>
+        <v>164</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="2">
+        <v>51</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
         <v>52</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="2">
-        <v>224.1</v>
+        <v>728</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="2">
+        <v>52</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C14" s="2">
-        <v>132.8</v>
+        <v>224.1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>93</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" s="2">
+        <v>53</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>224.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C15" s="2">
+        <v>132.8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="2">
+        <v>55</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>132.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>56</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="2">
         <v>28275.55</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>93</v>
+      <c r="D16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="2">
+        <v>56</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.00338</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>95.571359</v>
       </c>
     </row>
   </sheetData>
@@ -2534,7 +3074,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2542,19 +3082,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1">
         <v>1997</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1">
         <v>809000</v>
@@ -2562,93 +3102,116 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1997</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="2">
-        <v>2164</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="G2" s="2">
+        <v>809000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C3" s="2">
-        <v>3456</v>
+        <v>2164</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1776000</v>
+        <v>105</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C4" s="2">
-        <v>1794</v>
+        <v>3456</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2">
-        <v>572000</v>
+        <v>1776000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="2">
-        <v>3498</v>
+        <v>1794</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2">
+        <v>572000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>70</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3498</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="2">
         <v>3212000</v>
       </c>
     </row>
@@ -2659,7 +3222,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2667,16 +3230,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -2685,112 +3248,112 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>145076</v>
+        <v>2122758</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>1960124</v>
+        <v>145076</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>310573</v>
+        <v>1960124</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>122624</v>
+        <v>310573</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>1142</v>
+        <v>122624</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>112</v>
@@ -2799,124 +3362,124 @@
         <v>120</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>23557</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>102961</v>
+        <v>23557</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>13989</v>
+        <v>102961</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>160026</v>
+        <v>13989</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>961516</v>
+        <v>160026</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>149298</v>
+        <v>961516</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>117</v>
@@ -2925,80 +3488,101 @@
         <v>120</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>459537</v>
+        <v>149298</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="2">
-        <v>30819.75</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>899751.78</v>
+        <v>459537</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="F15" s="2">
+        <v>30819.75</v>
+      </c>
       <c r="G15" s="2">
-        <v>100239</v>
+        <v>899751.78</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
+        <v>99</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>100239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>100</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="B17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="2">
         <v>1354.74</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17" s="2">
         <v>40940.24</v>
       </c>
     </row>
@@ -3009,7 +3593,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3023,13 +3607,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3058,145 +3642,145 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="E2" s="2">
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G2" s="2">
-        <v>2000</v>
+        <v>70000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2">
         <v>1338</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N2" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2">
-        <v>30000</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G3" s="2">
-        <v>300000</v>
+        <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2">
         <v>1338</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N3" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2">
-        <v>100</v>
+        <v>30000</v>
       </c>
       <c r="E4" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G4" s="2">
-        <v>10000</v>
+        <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L4" s="2">
         <v>1338</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N4" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2">
         <v>100</v>
@@ -3205,30 +3789,74 @@
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G5" s="2">
         <v>10000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L5" s="2">
         <v>1338</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N5" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>111</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1338</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="2">
         <v>111</v>
       </c>
     </row>
@@ -3239,24 +3867,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1">
         <v>5</v>
@@ -3265,9 +3893,38 @@
         <v>10000</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I1" s="1">
+        <v>1459700</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>116</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="2">
         <v>1459700</v>
       </c>
     </row>
@@ -3278,7 +3935,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3286,13 +3943,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E1" s="1">
         <v>47.032</v>
@@ -3301,7 +3958,7 @@
         <v>103.5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H1" s="1">
         <v>142110.9</v>
@@ -3309,469 +3966,495 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>121</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="2">
+        <v>47.032</v>
+      </c>
+      <c r="F2" s="2">
+        <v>103.5</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="2">
-        <v>181.75</v>
-      </c>
-      <c r="F2" s="2">
-        <v>20.66</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="H2" s="2">
-        <v>109622.15</v>
+        <v>142110.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2">
-        <v>160.87</v>
+        <v>181.75</v>
       </c>
       <c r="F3" s="2">
-        <v>23.53</v>
+        <v>20.66</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H3" s="2">
-        <v>110507.2</v>
+        <v>109622.15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2">
-        <v>217.15</v>
+        <v>160.87</v>
       </c>
       <c r="F4" s="2">
         <v>23.53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H4" s="2">
-        <v>149167.89</v>
+        <v>110507.2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E5" s="2">
-        <v>189.791</v>
+        <v>217.15</v>
       </c>
       <c r="F5" s="2">
-        <v>6.88</v>
+        <v>23.53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H5" s="2">
-        <v>38120.41</v>
+        <v>149167.89</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E6" s="2">
-        <v>108.861</v>
+        <v>189.791</v>
       </c>
       <c r="F6" s="2">
-        <v>25.11</v>
+        <v>6.88</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H6" s="2">
-        <v>79801.79</v>
+        <v>38120.41</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E7" s="2">
-        <v>78.308</v>
+        <v>108.861</v>
       </c>
       <c r="F7" s="2">
-        <v>47.03</v>
+        <v>25.11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H7" s="2">
-        <v>107516.4</v>
+        <v>79801.79</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E8" s="2">
-        <v>1031.299</v>
+        <v>78.308</v>
       </c>
       <c r="F8" s="2">
-        <v>2.9281</v>
+        <v>47.03</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H8" s="2">
-        <v>88158.48</v>
+        <v>107516.4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2">
-        <v>134.789</v>
+        <v>1031.299</v>
       </c>
       <c r="F9" s="2">
-        <v>41.04</v>
+        <v>2.9281</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H9" s="2">
-        <v>161493.63</v>
+        <v>88158.48</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2">
-        <v>116.88</v>
+        <v>134.789</v>
       </c>
       <c r="F10" s="2">
-        <v>44.02</v>
+        <v>41.04</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H10" s="2">
-        <v>150204.81</v>
+        <v>161493.63</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E11" s="2">
-        <v>69.951</v>
+        <v>116.88</v>
       </c>
       <c r="F11" s="2">
-        <v>78.18</v>
+        <v>44.02</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H11" s="2">
-        <v>159655.24</v>
+        <v>150204.81</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E12" s="2">
-        <v>160.81</v>
+        <v>69.951</v>
       </c>
       <c r="F12" s="2">
-        <v>28.68</v>
+        <v>78.18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H12" s="2">
-        <v>134643.62</v>
+        <v>159655.24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
+        <v>133</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E13" s="2">
-        <v>50000</v>
+        <v>160.81</v>
       </c>
       <c r="F13" s="2">
-        <v>10.0987</v>
+        <v>28.68</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="H13" s="2">
-        <v>504935</v>
+        <v>134643.62</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2">
-        <v>108.453</v>
+        <v>50000</v>
       </c>
       <c r="F14" s="2">
-        <v>31.15</v>
+        <v>10.0987</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="H14" s="2">
-        <v>98626.4</v>
+        <v>504935</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E15" s="2">
-        <v>184.302</v>
+        <v>108.453</v>
       </c>
       <c r="F15" s="2">
-        <v>19.273</v>
+        <v>31.15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H15" s="2">
-        <v>103698.61</v>
+        <v>98626.4</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E16" s="2">
-        <v>140.375</v>
+        <v>184.302</v>
       </c>
       <c r="F16" s="2">
-        <v>23.33</v>
+        <v>19.273</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H16" s="2">
-        <v>95608.85</v>
+        <v>103698.61</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E17" s="2">
-        <v>185.784</v>
+        <v>140.375</v>
       </c>
       <c r="F17" s="2">
-        <v>15.94</v>
+        <v>23.33</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H17" s="2">
-        <v>86455.02</v>
+        <v>95608.85</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E18" s="2">
-        <v>3.333</v>
+        <v>185.784</v>
       </c>
       <c r="F18" s="2">
-        <v>945.5</v>
+        <v>15.94</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H18" s="2">
-        <v>92000.55</v>
+        <v>86455.02</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
+        <v>139</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3.333</v>
+      </c>
+      <c r="F19" s="2">
+        <v>945.5</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="2">
+        <v>92000.55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
         <v>140</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="B20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="2">
         <v>34.357</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="2">
         <v>103.5</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="2">
         <v>103812.38</v>
       </c>
     </row>
@@ -3782,7 +4465,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3790,58 +4473,75 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>158</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>150</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>151</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
         <v>400000</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>39</v>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3851,7 +4551,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3859,305 +4559,322 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>168</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">
+        <v>165</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1">
+        <v>166</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1">
+        <v>173</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
         <v>174</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>194</v>
+      <c r="B19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
+++ b/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="202">
   <si>
     <t>name</t>
   </si>
@@ -310,22 +310,25 @@
     <t>213234(公共設施）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>中華</t>
   </si>
   <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>豐田</t>
+  </si>
+  <si>
+    <t>國瑞</t>
+  </si>
+  <si>
+    <t>賓士</t>
+  </si>
+  <si>
     <t>93年08月10曰</t>
-  </si>
-  <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
-    <t>豐田</t>
-  </si>
-  <si>
-    <t>國瑞</t>
-  </si>
-  <si>
-    <t>賓士</t>
   </si>
   <si>
     <t>90年09月19曰</t>
@@ -2168,22 +2171,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E1" s="1">
         <v>6500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2191,22 +2194,22 @@
         <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E2" s="2">
         <v>6500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3074,38 +3077,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="1">
-        <v>1997</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="1">
-        <v>809000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -3114,7 +3138,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>63</v>
@@ -3122,8 +3146,29 @@
       <c r="G2" s="2">
         <v>809000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1338</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>67</v>
       </c>
@@ -3137,16 +3182,37 @@
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1338</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>68</v>
       </c>
@@ -3160,7 +3226,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>63</v>
@@ -3168,8 +3234,29 @@
       <c r="G4" s="2">
         <v>1776000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1338</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>69</v>
       </c>
@@ -3183,7 +3270,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>63</v>
@@ -3191,8 +3278,29 @@
       <c r="G5" s="2">
         <v>572000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1338</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>70</v>
       </c>
@@ -3206,13 +3314,34 @@
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>63</v>
       </c>
       <c r="G6" s="2">
         <v>3212000</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1338</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="2">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3230,13 +3359,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>40</v>
@@ -3251,13 +3380,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>40</v>
@@ -3272,13 +3401,13 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>41</v>
@@ -3293,13 +3422,13 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>40</v>
@@ -3314,13 +3443,13 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>41</v>
@@ -3335,13 +3464,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>41</v>
@@ -3356,13 +3485,13 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>41</v>
@@ -3377,13 +3506,13 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>40</v>
@@ -3398,13 +3527,13 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>40</v>
@@ -3419,13 +3548,13 @@
         <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>40</v>
@@ -3440,13 +3569,13 @@
         <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>41</v>
@@ -3461,13 +3590,13 @@
         <v>95</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>41</v>
@@ -3482,13 +3611,13 @@
         <v>96</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>40</v>
@@ -3503,13 +3632,13 @@
         <v>97</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>41</v>
@@ -3524,13 +3653,13 @@
         <v>98</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>40</v>
@@ -3547,13 +3676,13 @@
         <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>40</v>
@@ -3568,13 +3697,13 @@
         <v>100</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>41</v>
@@ -3607,13 +3736,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3645,7 +3774,7 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
@@ -3657,13 +3786,13 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G2" s="2">
         <v>70000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>68</v>
@@ -3689,7 +3818,7 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
@@ -3701,13 +3830,13 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G3" s="2">
         <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>68</v>
@@ -3733,7 +3862,7 @@
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
@@ -3745,13 +3874,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G4" s="2">
         <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>68</v>
@@ -3777,7 +3906,7 @@
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>41</v>
@@ -3789,13 +3918,13 @@
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G5" s="2">
         <v>10000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>68</v>
@@ -3821,7 +3950,7 @@
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
@@ -3833,13 +3962,13 @@
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>68</v>
@@ -3875,16 +4004,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F1" s="1">
         <v>5</v>
@@ -3893,7 +4022,7 @@
         <v>10000</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I1" s="1">
         <v>1459700</v>
@@ -3904,16 +4033,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F2" s="2">
         <v>5</v>
@@ -3922,7 +4051,7 @@
         <v>10000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I2" s="2">
         <v>1459700</v>
@@ -3943,13 +4072,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="E1" s="1">
         <v>47.032</v>
@@ -3958,7 +4087,7 @@
         <v>103.5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1">
         <v>142110.9</v>
@@ -3969,13 +4098,13 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E2" s="2">
         <v>47.032</v>
@@ -3984,7 +4113,7 @@
         <v>103.5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H2" s="2">
         <v>142110.9</v>
@@ -3995,13 +4124,13 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E3" s="2">
         <v>181.75</v>
@@ -4010,7 +4139,7 @@
         <v>20.66</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H3" s="2">
         <v>109622.15</v>
@@ -4021,13 +4150,13 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E4" s="2">
         <v>160.87</v>
@@ -4036,7 +4165,7 @@
         <v>23.53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H4" s="2">
         <v>110507.2</v>
@@ -4047,13 +4176,13 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E5" s="2">
         <v>217.15</v>
@@ -4062,7 +4191,7 @@
         <v>23.53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H5" s="2">
         <v>149167.89</v>
@@ -4073,13 +4202,13 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E6" s="2">
         <v>189.791</v>
@@ -4088,7 +4217,7 @@
         <v>6.88</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H6" s="2">
         <v>38120.41</v>
@@ -4099,13 +4228,13 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E7" s="2">
         <v>108.861</v>
@@ -4114,7 +4243,7 @@
         <v>25.11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H7" s="2">
         <v>79801.79</v>
@@ -4125,13 +4254,13 @@
         <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E8" s="2">
         <v>78.308</v>
@@ -4140,7 +4269,7 @@
         <v>47.03</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H8" s="2">
         <v>107516.4</v>
@@ -4151,13 +4280,13 @@
         <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2">
         <v>1031.299</v>
@@ -4166,7 +4295,7 @@
         <v>2.9281</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H9" s="2">
         <v>88158.48</v>
@@ -4177,13 +4306,13 @@
         <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2">
         <v>134.789</v>
@@ -4192,7 +4321,7 @@
         <v>41.04</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H10" s="2">
         <v>161493.63</v>
@@ -4203,13 +4332,13 @@
         <v>131</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E11" s="2">
         <v>116.88</v>
@@ -4218,7 +4347,7 @@
         <v>44.02</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H11" s="2">
         <v>150204.81</v>
@@ -4229,13 +4358,13 @@
         <v>132</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E12" s="2">
         <v>69.951</v>
@@ -4244,7 +4373,7 @@
         <v>78.18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H12" s="2">
         <v>159655.24</v>
@@ -4255,13 +4384,13 @@
         <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E13" s="2">
         <v>160.81</v>
@@ -4270,7 +4399,7 @@
         <v>28.68</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H13" s="2">
         <v>134643.62</v>
@@ -4281,13 +4410,13 @@
         <v>134</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2">
         <v>50000</v>
@@ -4296,7 +4425,7 @@
         <v>10.0987</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H14" s="2">
         <v>504935</v>
@@ -4307,13 +4436,13 @@
         <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E15" s="2">
         <v>108.453</v>
@@ -4322,7 +4451,7 @@
         <v>31.15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H15" s="2">
         <v>98626.4</v>
@@ -4333,13 +4462,13 @@
         <v>136</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E16" s="2">
         <v>184.302</v>
@@ -4348,7 +4477,7 @@
         <v>19.273</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H16" s="2">
         <v>103698.61</v>
@@ -4359,13 +4488,13 @@
         <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E17" s="2">
         <v>140.375</v>
@@ -4374,7 +4503,7 @@
         <v>23.33</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H17" s="2">
         <v>95608.85</v>
@@ -4385,13 +4514,13 @@
         <v>138</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E18" s="2">
         <v>185.784</v>
@@ -4400,7 +4529,7 @@
         <v>15.94</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H18" s="2">
         <v>86455.02</v>
@@ -4411,13 +4540,13 @@
         <v>139</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E19" s="2">
         <v>3.333</v>
@@ -4426,7 +4555,7 @@
         <v>945.5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H19" s="2">
         <v>92000.55</v>
@@ -4437,13 +4566,13 @@
         <v>140</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E20" s="2">
         <v>34.357</v>
@@ -4452,7 +4581,7 @@
         <v>103.5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H20" s="2">
         <v>103812.38</v>
@@ -4473,14 +4602,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -4490,16 +4619,16 @@
         <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4507,22 +4636,22 @@
         <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4530,7 +4659,7 @@
         <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -4559,16 +4688,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4576,16 +4705,16 @@
         <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4593,16 +4722,16 @@
         <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4610,16 +4739,16 @@
         <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4627,16 +4756,16 @@
         <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4644,16 +4773,16 @@
         <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4661,16 +4790,16 @@
         <v>162</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4678,16 +4807,16 @@
         <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4695,16 +4824,16 @@
         <v>164</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4712,16 +4841,16 @@
         <v>165</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4729,16 +4858,16 @@
         <v>166</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4746,16 +4875,16 @@
         <v>167</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4763,16 +4892,16 @@
         <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4780,16 +4909,16 @@
         <v>169</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4797,16 +4926,16 @@
         <v>170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4814,16 +4943,16 @@
         <v>171</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4831,16 +4960,16 @@
         <v>172</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4848,16 +4977,16 @@
         <v>173</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4865,16 +4994,16 @@
         <v>174</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
+++ b/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="204">
   <si>
     <t>name</t>
   </si>
@@ -310,6 +310,9 @@
     <t>213234(公共設施）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -344,6 +347,9 @@
   </si>
   <si>
     <t>Cm37=fca貝貿</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行彰化分行</t>
@@ -2171,22 +2177,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E1" s="1">
         <v>6500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2194,22 +2200,22 @@
         <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E2" s="2">
         <v>6500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2301,7 +2307,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>68</v>
@@ -2354,7 +2360,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>68</v>
@@ -2407,7 +2413,7 @@
         <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>68</v>
@@ -2460,7 +2466,7 @@
         <v>90</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>68</v>
@@ -2513,7 +2519,7 @@
         <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>68</v>
@@ -2566,7 +2572,7 @@
         <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>68</v>
@@ -2619,7 +2625,7 @@
         <v>91</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>68</v>
@@ -2672,7 +2678,7 @@
         <v>91</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>68</v>
@@ -2725,7 +2731,7 @@
         <v>90</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>68</v>
@@ -2778,7 +2784,7 @@
         <v>90</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>68</v>
@@ -2831,7 +2837,7 @@
         <v>66</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>68</v>
@@ -2884,7 +2890,7 @@
         <v>92</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>68</v>
@@ -2937,7 +2943,7 @@
         <v>93</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>68</v>
@@ -2990,7 +2996,7 @@
         <v>66</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>68</v>
@@ -3043,7 +3049,7 @@
         <v>94</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>68</v>
@@ -3088,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -3129,7 +3135,7 @@
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -3138,7 +3144,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>63</v>
@@ -3147,7 +3153,7 @@
         <v>809000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>68</v>
@@ -3173,7 +3179,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2">
         <v>2164</v>
@@ -3182,16 +3188,16 @@
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>68</v>
@@ -3217,7 +3223,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2">
         <v>3456</v>
@@ -3226,7 +3232,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>63</v>
@@ -3235,7 +3241,7 @@
         <v>1776000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>68</v>
@@ -3261,7 +3267,7 @@
         <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2">
         <v>1794</v>
@@ -3270,7 +3276,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>63</v>
@@ -3279,7 +3285,7 @@
         <v>572000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>68</v>
@@ -3305,7 +3311,7 @@
         <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2">
         <v>3498</v>
@@ -3314,7 +3320,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>63</v>
@@ -3323,7 +3329,7 @@
         <v>3212000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>68</v>
@@ -3359,13 +3365,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>40</v>
@@ -3380,13 +3386,13 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>40</v>
@@ -3401,13 +3407,13 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>41</v>
@@ -3422,13 +3428,13 @@
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>40</v>
@@ -3443,13 +3449,13 @@
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>41</v>
@@ -3464,13 +3470,13 @@
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>41</v>
@@ -3485,13 +3491,13 @@
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>41</v>
@@ -3506,13 +3512,13 @@
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>40</v>
@@ -3527,13 +3533,13 @@
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>40</v>
@@ -3548,13 +3554,13 @@
         <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>40</v>
@@ -3569,13 +3575,13 @@
         <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>41</v>
@@ -3590,13 +3596,13 @@
         <v>95</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>41</v>
@@ -3611,13 +3617,13 @@
         <v>96</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>40</v>
@@ -3632,13 +3638,13 @@
         <v>97</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>41</v>
@@ -3653,13 +3659,13 @@
         <v>98</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>40</v>
@@ -3676,13 +3682,13 @@
         <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>40</v>
@@ -3697,13 +3703,13 @@
         <v>100</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>41</v>
@@ -3736,13 +3742,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3774,7 +3780,7 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
@@ -3786,13 +3792,13 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2">
         <v>70000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>68</v>
@@ -3818,7 +3824,7 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
@@ -3830,13 +3836,13 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G3" s="2">
         <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>68</v>
@@ -3862,7 +3868,7 @@
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
@@ -3874,13 +3880,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G4" s="2">
         <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>68</v>
@@ -3906,7 +3912,7 @@
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>41</v>
@@ -3918,13 +3924,13 @@
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G5" s="2">
         <v>10000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>68</v>
@@ -3950,7 +3956,7 @@
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
@@ -3962,13 +3968,13 @@
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>68</v>
@@ -4004,16 +4010,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1">
         <v>5</v>
@@ -4022,7 +4028,7 @@
         <v>10000</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I1" s="1">
         <v>1459700</v>
@@ -4033,16 +4039,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F2" s="2">
         <v>5</v>
@@ -4051,7 +4057,7 @@
         <v>10000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I2" s="2">
         <v>1459700</v>
@@ -4072,13 +4078,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1">
         <v>47.032</v>
@@ -4087,7 +4093,7 @@
         <v>103.5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1">
         <v>142110.9</v>
@@ -4098,13 +4104,13 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2">
         <v>47.032</v>
@@ -4113,7 +4119,7 @@
         <v>103.5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H2" s="2">
         <v>142110.9</v>
@@ -4124,13 +4130,13 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="E3" s="2">
         <v>181.75</v>
@@ -4139,7 +4145,7 @@
         <v>20.66</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H3" s="2">
         <v>109622.15</v>
@@ -4150,13 +4156,13 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E4" s="2">
         <v>160.87</v>
@@ -4165,7 +4171,7 @@
         <v>23.53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H4" s="2">
         <v>110507.2</v>
@@ -4176,13 +4182,13 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E5" s="2">
         <v>217.15</v>
@@ -4191,7 +4197,7 @@
         <v>23.53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H5" s="2">
         <v>149167.89</v>
@@ -4202,13 +4208,13 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E6" s="2">
         <v>189.791</v>
@@ -4217,7 +4223,7 @@
         <v>6.88</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H6" s="2">
         <v>38120.41</v>
@@ -4228,13 +4234,13 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E7" s="2">
         <v>108.861</v>
@@ -4243,7 +4249,7 @@
         <v>25.11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H7" s="2">
         <v>79801.79</v>
@@ -4254,13 +4260,13 @@
         <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E8" s="2">
         <v>78.308</v>
@@ -4269,7 +4275,7 @@
         <v>47.03</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H8" s="2">
         <v>107516.4</v>
@@ -4280,13 +4286,13 @@
         <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2">
         <v>1031.299</v>
@@ -4295,7 +4301,7 @@
         <v>2.9281</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H9" s="2">
         <v>88158.48</v>
@@ -4306,13 +4312,13 @@
         <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2">
         <v>134.789</v>
@@ -4321,7 +4327,7 @@
         <v>41.04</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H10" s="2">
         <v>161493.63</v>
@@ -4332,13 +4338,13 @@
         <v>131</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E11" s="2">
         <v>116.88</v>
@@ -4347,7 +4353,7 @@
         <v>44.02</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H11" s="2">
         <v>150204.81</v>
@@ -4358,13 +4364,13 @@
         <v>132</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E12" s="2">
         <v>69.951</v>
@@ -4373,7 +4379,7 @@
         <v>78.18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H12" s="2">
         <v>159655.24</v>
@@ -4384,13 +4390,13 @@
         <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E13" s="2">
         <v>160.81</v>
@@ -4399,7 +4405,7 @@
         <v>28.68</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H13" s="2">
         <v>134643.62</v>
@@ -4410,13 +4416,13 @@
         <v>134</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E14" s="2">
         <v>50000</v>
@@ -4425,7 +4431,7 @@
         <v>10.0987</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H14" s="2">
         <v>504935</v>
@@ -4436,13 +4442,13 @@
         <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E15" s="2">
         <v>108.453</v>
@@ -4451,7 +4457,7 @@
         <v>31.15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H15" s="2">
         <v>98626.4</v>
@@ -4462,13 +4468,13 @@
         <v>136</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E16" s="2">
         <v>184.302</v>
@@ -4477,7 +4483,7 @@
         <v>19.273</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H16" s="2">
         <v>103698.61</v>
@@ -4488,13 +4494,13 @@
         <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E17" s="2">
         <v>140.375</v>
@@ -4503,7 +4509,7 @@
         <v>23.33</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H17" s="2">
         <v>95608.85</v>
@@ -4514,13 +4520,13 @@
         <v>138</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E18" s="2">
         <v>185.784</v>
@@ -4529,7 +4535,7 @@
         <v>15.94</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H18" s="2">
         <v>86455.02</v>
@@ -4540,13 +4546,13 @@
         <v>139</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E19" s="2">
         <v>3.333</v>
@@ -4555,7 +4561,7 @@
         <v>945.5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H19" s="2">
         <v>92000.55</v>
@@ -4566,13 +4572,13 @@
         <v>140</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E20" s="2">
         <v>34.357</v>
@@ -4581,7 +4587,7 @@
         <v>103.5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H20" s="2">
         <v>103812.38</v>
@@ -4602,14 +4608,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -4619,16 +4625,16 @@
         <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4636,22 +4642,22 @@
         <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4659,7 +4665,7 @@
         <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -4688,16 +4694,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4705,16 +4711,16 @@
         <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4722,16 +4728,16 @@
         <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4739,16 +4745,16 @@
         <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4756,16 +4762,16 @@
         <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4773,16 +4779,16 @@
         <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4790,16 +4796,16 @@
         <v>162</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4807,16 +4813,16 @@
         <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4824,16 +4830,16 @@
         <v>164</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4841,16 +4847,16 @@
         <v>165</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4858,16 +4864,16 @@
         <v>166</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4875,16 +4881,16 @@
         <v>167</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4892,16 +4898,16 @@
         <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4909,16 +4915,16 @@
         <v>169</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4926,16 +4932,16 @@
         <v>170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4943,16 +4949,16 @@
         <v>171</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4960,16 +4966,16 @@
         <v>172</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4977,16 +4983,16 @@
         <v>173</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4994,16 +5000,16 @@
         <v>174</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
+++ b/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="207">
   <si>
     <t>name</t>
   </si>
@@ -352,67 +352,76 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行彰化分行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行彰營分行</t>
+  </si>
+  <si>
+    <t>合.作金庫商業銀行彰營分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行彰化分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行中彰分行</t>
+  </si>
+  <si>
+    <t>彰化第五信用合作社營業部</t>
+  </si>
+  <si>
+    <t>彰化第五信用合作社旭光分社</t>
+  </si>
+  <si>
+    <t>彰化第十信用合作社營業部</t>
+  </si>
+  <si>
+    <t>元大商業銀行彰化分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司彰化光復路郵局</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行南彰化分行</t>
+  </si>
+  <si>
+    <t>彰化市農會大竹里彰南分社</t>
+  </si>
+  <si>
     <t>綜合存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>合作金庫商業銀行彰營分行</t>
-  </si>
-  <si>
-    <t>合.作金庫商業銀行彰營分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行彰化分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行中彰分行</t>
-  </si>
-  <si>
-    <t>彰化第五信用合作社營業部</t>
-  </si>
-  <si>
-    <t>彰化第五信用合作社旭光分社</t>
-  </si>
-  <si>
-    <t>彰化第十信用合作社營業部</t>
-  </si>
-  <si>
-    <t>元大商業銀行彰化分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司彰化光復路郵局</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行南彰化分行</t>
-  </si>
-  <si>
-    <t>彰化市農會大竹里彰南分社</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>澳幣</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>彰化第五信用合作社</t>
@@ -2177,22 +2186,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E1" s="1">
         <v>6500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2200,22 +2209,22 @@
         <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E2" s="2">
         <v>6500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3357,13 +3366,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>109</v>
       </c>
@@ -3374,351 +3383,687 @@
         <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>2122758</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>2122758</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>145076</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>1960124</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>310573</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>122624</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>1142</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>23557</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>92</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>102961</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>13989</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>160026</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>95</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>961516</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>96</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>149298</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>97</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>459537</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>98</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="2">
-        <v>30819.75</v>
-      </c>
-      <c r="G15" s="2">
         <v>899751.78</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>100239</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>100</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="2">
-        <v>1354.74</v>
-      </c>
-      <c r="G17" s="2">
         <v>40940.24</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1338</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3742,13 +4087,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -3780,7 +4125,7 @@
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>40</v>
@@ -3792,13 +4137,13 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G2" s="2">
         <v>70000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>68</v>
@@ -3824,7 +4169,7 @@
         <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>40</v>
@@ -3836,13 +4181,13 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G3" s="2">
         <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>68</v>
@@ -3868,7 +4213,7 @@
         <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
@@ -3880,13 +4225,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G4" s="2">
         <v>300000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>68</v>
@@ -3912,7 +4257,7 @@
         <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>41</v>
@@ -3924,13 +4269,13 @@
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G5" s="2">
         <v>10000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>68</v>
@@ -3956,7 +4301,7 @@
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>40</v>
@@ -3968,13 +4313,13 @@
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>68</v>
@@ -4010,16 +4355,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1">
         <v>5</v>
@@ -4028,7 +4373,7 @@
         <v>10000</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I1" s="1">
         <v>1459700</v>
@@ -4039,16 +4384,16 @@
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F2" s="2">
         <v>5</v>
@@ -4057,7 +4402,7 @@
         <v>10000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I2" s="2">
         <v>1459700</v>
@@ -4078,13 +4423,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1">
         <v>47.032</v>
@@ -4093,7 +4438,7 @@
         <v>103.5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1">
         <v>142110.9</v>
@@ -4104,13 +4449,13 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E2" s="2">
         <v>47.032</v>
@@ -4119,7 +4464,7 @@
         <v>103.5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H2" s="2">
         <v>142110.9</v>
@@ -4130,13 +4475,13 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E3" s="2">
         <v>181.75</v>
@@ -4145,7 +4490,7 @@
         <v>20.66</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H3" s="2">
         <v>109622.15</v>
@@ -4156,13 +4501,13 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E4" s="2">
         <v>160.87</v>
@@ -4171,7 +4516,7 @@
         <v>23.53</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H4" s="2">
         <v>110507.2</v>
@@ -4182,13 +4527,13 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="E5" s="2">
         <v>217.15</v>
@@ -4197,7 +4542,7 @@
         <v>23.53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H5" s="2">
         <v>149167.89</v>
@@ -4208,13 +4553,13 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E6" s="2">
         <v>189.791</v>
@@ -4223,7 +4568,7 @@
         <v>6.88</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H6" s="2">
         <v>38120.41</v>
@@ -4234,13 +4579,13 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2">
         <v>108.861</v>
@@ -4249,7 +4594,7 @@
         <v>25.11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H7" s="2">
         <v>79801.79</v>
@@ -4260,13 +4605,13 @@
         <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E8" s="2">
         <v>78.308</v>
@@ -4275,7 +4620,7 @@
         <v>47.03</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H8" s="2">
         <v>107516.4</v>
@@ -4286,13 +4631,13 @@
         <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E9" s="2">
         <v>1031.299</v>
@@ -4301,7 +4646,7 @@
         <v>2.9281</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H9" s="2">
         <v>88158.48</v>
@@ -4312,13 +4657,13 @@
         <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E10" s="2">
         <v>134.789</v>
@@ -4327,7 +4672,7 @@
         <v>41.04</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H10" s="2">
         <v>161493.63</v>
@@ -4338,13 +4683,13 @@
         <v>131</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E11" s="2">
         <v>116.88</v>
@@ -4353,7 +4698,7 @@
         <v>44.02</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H11" s="2">
         <v>150204.81</v>
@@ -4364,13 +4709,13 @@
         <v>132</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E12" s="2">
         <v>69.951</v>
@@ -4379,7 +4724,7 @@
         <v>78.18</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H12" s="2">
         <v>159655.24</v>
@@ -4390,13 +4735,13 @@
         <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E13" s="2">
         <v>160.81</v>
@@ -4405,7 +4750,7 @@
         <v>28.68</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H13" s="2">
         <v>134643.62</v>
@@ -4416,13 +4761,13 @@
         <v>134</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E14" s="2">
         <v>50000</v>
@@ -4431,7 +4776,7 @@
         <v>10.0987</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="H14" s="2">
         <v>504935</v>
@@ -4442,13 +4787,13 @@
         <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E15" s="2">
         <v>108.453</v>
@@ -4457,7 +4802,7 @@
         <v>31.15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H15" s="2">
         <v>98626.4</v>
@@ -4468,13 +4813,13 @@
         <v>136</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E16" s="2">
         <v>184.302</v>
@@ -4483,7 +4828,7 @@
         <v>19.273</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H16" s="2">
         <v>103698.61</v>
@@ -4494,13 +4839,13 @@
         <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E17" s="2">
         <v>140.375</v>
@@ -4509,7 +4854,7 @@
         <v>23.33</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H17" s="2">
         <v>95608.85</v>
@@ -4520,13 +4865,13 @@
         <v>138</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E18" s="2">
         <v>185.784</v>
@@ -4535,7 +4880,7 @@
         <v>15.94</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H18" s="2">
         <v>86455.02</v>
@@ -4546,13 +4891,13 @@
         <v>139</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E19" s="2">
         <v>3.333</v>
@@ -4561,7 +4906,7 @@
         <v>945.5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H19" s="2">
         <v>92000.55</v>
@@ -4572,13 +4917,13 @@
         <v>140</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E20" s="2">
         <v>34.357</v>
@@ -4587,7 +4932,7 @@
         <v>103.5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H20" s="2">
         <v>103812.38</v>
@@ -4608,14 +4953,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -4625,16 +4970,16 @@
         <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4642,22 +4987,22 @@
         <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4665,7 +5010,7 @@
         <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -4694,16 +5039,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4711,16 +5056,16 @@
         <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4728,16 +5073,16 @@
         <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4745,16 +5090,16 @@
         <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4762,16 +5107,16 @@
         <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4779,16 +5124,16 @@
         <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4796,16 +5141,16 @@
         <v>162</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4813,16 +5158,16 @@
         <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4830,16 +5175,16 @@
         <v>164</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4847,16 +5192,16 @@
         <v>165</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4864,16 +5209,16 @@
         <v>166</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4881,16 +5226,16 @@
         <v>167</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4898,16 +5243,16 @@
         <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4915,16 +5260,16 @@
         <v>169</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4932,16 +5277,16 @@
         <v>170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4949,16 +5294,16 @@
         <v>171</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4966,16 +5311,16 @@
         <v>172</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4983,16 +5328,16 @@
         <v>173</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5000,16 +5345,16 @@
         <v>174</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
+++ b/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="210">
   <si>
     <t>name</t>
   </si>
@@ -439,6 +439,12 @@
     <t>stock</t>
   </si>
   <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>dealer</t>
+  </si>
+  <si>
     <t>雙元雙利獲利鎖利保本連動債</t>
   </si>
   <si>
@@ -446,6 +452,9 @@
   </si>
   <si>
     <t>元大商業銀行</t>
+  </si>
+  <si>
+    <t>bonds</t>
   </si>
   <si>
     <t>JF東協基金</t>
@@ -2186,22 +2195,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E1" s="1">
         <v>6500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2209,22 +2218,22 @@
         <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E2" s="2">
         <v>6500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -4347,53 +4356,74 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
-        <v>10000</v>
+      <c r="F1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="1">
-        <v>1459700</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F2" s="2">
         <v>5</v>
@@ -4406,6 +4436,27 @@
       </c>
       <c r="I2" s="2">
         <v>1459700</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1338</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="2">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4423,13 +4474,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1">
         <v>47.032</v>
@@ -4449,13 +4500,13 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2">
         <v>47.032</v>
@@ -4475,13 +4526,13 @@
         <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="E3" s="2">
         <v>181.75</v>
@@ -4501,13 +4552,13 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E4" s="2">
         <v>160.87</v>
@@ -4527,13 +4578,13 @@
         <v>125</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E5" s="2">
         <v>217.15</v>
@@ -4553,13 +4604,13 @@
         <v>126</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E6" s="2">
         <v>189.791</v>
@@ -4579,13 +4630,13 @@
         <v>127</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E7" s="2">
         <v>108.861</v>
@@ -4605,13 +4656,13 @@
         <v>128</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E8" s="2">
         <v>78.308</v>
@@ -4631,13 +4682,13 @@
         <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E9" s="2">
         <v>1031.299</v>
@@ -4657,13 +4708,13 @@
         <v>130</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E10" s="2">
         <v>134.789</v>
@@ -4683,13 +4734,13 @@
         <v>131</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E11" s="2">
         <v>116.88</v>
@@ -4709,13 +4760,13 @@
         <v>132</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E12" s="2">
         <v>69.951</v>
@@ -4735,13 +4786,13 @@
         <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E13" s="2">
         <v>160.81</v>
@@ -4761,13 +4812,13 @@
         <v>134</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E14" s="2">
         <v>50000</v>
@@ -4787,13 +4838,13 @@
         <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E15" s="2">
         <v>108.453</v>
@@ -4813,13 +4864,13 @@
         <v>136</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E16" s="2">
         <v>184.302</v>
@@ -4839,13 +4890,13 @@
         <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E17" s="2">
         <v>140.375</v>
@@ -4865,13 +4916,13 @@
         <v>138</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E18" s="2">
         <v>185.784</v>
@@ -4891,13 +4942,13 @@
         <v>139</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E19" s="2">
         <v>3.333</v>
@@ -4917,13 +4968,13 @@
         <v>140</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E20" s="2">
         <v>34.357</v>
@@ -4953,14 +5004,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -4970,16 +5021,16 @@
         <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4987,22 +5038,22 @@
         <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5010,7 +5061,7 @@
         <v>151</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -5039,16 +5090,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5056,16 +5107,16 @@
         <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5073,16 +5124,16 @@
         <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5090,16 +5141,16 @@
         <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5107,16 +5158,16 @@
         <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5124,16 +5175,16 @@
         <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5141,16 +5192,16 @@
         <v>162</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5158,16 +5209,16 @@
         <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5175,16 +5226,16 @@
         <v>164</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5192,16 +5243,16 @@
         <v>165</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5209,16 +5260,16 @@
         <v>166</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5226,16 +5277,16 @@
         <v>167</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5243,16 +5294,16 @@
         <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5260,16 +5311,16 @@
         <v>169</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5277,16 +5328,16 @@
         <v>170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5294,16 +5345,16 @@
         <v>171</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5311,16 +5362,16 @@
         <v>172</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5328,16 +5379,16 @@
         <v>173</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5345,16 +5396,16 @@
         <v>174</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
+++ b/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
@@ -14,7 +14,7 @@
     <sheet name="股票" sheetId="5" r:id="rId5"/>
     <sheet name="債券" sheetId="6" r:id="rId6"/>
     <sheet name="基金受益憑證" sheetId="7" r:id="rId7"/>
-    <sheet name="其他有價證券" sheetId="8" r:id="rId8"/>
+    <sheet name="珠寶、古董、字畫" sheetId="8" r:id="rId8"/>
     <sheet name="保險" sheetId="9" r:id="rId9"/>
     <sheet name="債務" sheetId="10" r:id="rId10"/>
   </sheets>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="203">
   <si>
     <t>name</t>
   </si>
@@ -268,7 +268,7 @@
     <t>彰化縣彰化市南郭段南郭小段06597000建號</t>
   </si>
   <si>
-    <t>彰化縣彰化市箣桐段01058000建遗■</t>
+    <t>彰化縣彰化市箣桐段01058000建遗</t>
   </si>
   <si>
     <t>彰化縣彰化市中山路</t>
@@ -508,34 +508,13 @@
     <t>原物料投資美</t>
   </si>
   <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總fl</t>
-  </si>
-  <si>
-    <t>t額：新臺幣400000元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
+    <t>fund</t>
   </si>
   <si>
     <t>黃金</t>
   </si>
   <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>國華人壽</t>
@@ -2195,22 +2174,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E1" s="1">
         <v>6500000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2218,22 +2197,22 @@
         <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E2" s="2">
         <v>6500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4466,36 +4445,57 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E1" s="1">
-        <v>47.032</v>
-      </c>
-      <c r="F1" s="1">
-        <v>103.5</v>
+        <v>139</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="1">
-        <v>142110.9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>121</v>
       </c>
@@ -4520,8 +4520,29 @@
       <c r="H2" s="2">
         <v>142110.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>122</v>
       </c>
@@ -4546,8 +4567,29 @@
       <c r="H3" s="2">
         <v>109622.15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>124</v>
       </c>
@@ -4572,8 +4614,29 @@
       <c r="H4" s="2">
         <v>110507.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>125</v>
       </c>
@@ -4598,8 +4661,29 @@
       <c r="H5" s="2">
         <v>149167.89</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>126</v>
       </c>
@@ -4624,8 +4708,29 @@
       <c r="H6" s="2">
         <v>38120.41</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>127</v>
       </c>
@@ -4650,8 +4755,29 @@
       <c r="H7" s="2">
         <v>79801.79</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>128</v>
       </c>
@@ -4676,8 +4802,29 @@
       <c r="H8" s="2">
         <v>107516.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>129</v>
       </c>
@@ -4702,8 +4849,29 @@
       <c r="H9" s="2">
         <v>88158.48</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>130</v>
       </c>
@@ -4728,8 +4896,29 @@
       <c r="H10" s="2">
         <v>161493.63</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>131</v>
       </c>
@@ -4754,8 +4943,29 @@
       <c r="H11" s="2">
         <v>150204.81</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>132</v>
       </c>
@@ -4780,8 +4990,29 @@
       <c r="H12" s="2">
         <v>159655.24</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>133</v>
       </c>
@@ -4806,8 +5037,29 @@
       <c r="H13" s="2">
         <v>134643.62</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>134</v>
       </c>
@@ -4832,8 +5084,29 @@
       <c r="H14" s="2">
         <v>504935</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>135</v>
       </c>
@@ -4858,8 +5131,29 @@
       <c r="H15" s="2">
         <v>98626.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>136</v>
       </c>
@@ -4884,8 +5178,29 @@
       <c r="H16" s="2">
         <v>103698.61</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>137</v>
       </c>
@@ -4910,8 +5225,29 @@
       <c r="H17" s="2">
         <v>95608.85</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>138</v>
       </c>
@@ -4936,8 +5272,29 @@
       <c r="H18" s="2">
         <v>86455.02</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O18" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>139</v>
       </c>
@@ -4962,8 +5319,29 @@
       <c r="H19" s="2">
         <v>92000.55</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>140</v>
       </c>
@@ -4987,6 +5365,27 @@
       </c>
       <c r="H20" s="2">
         <v>103812.38</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1338</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="2">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4996,83 +5395,83 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>151</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2">
+        <v>400000</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>149</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>150</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
+        <v>68</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1338</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="2">
         <v>151</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>400000</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -5090,16 +5489,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5107,16 +5506,16 @@
         <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5124,16 +5523,16 @@
         <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5141,16 +5540,16 @@
         <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5158,16 +5557,16 @@
         <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5175,16 +5574,16 @@
         <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5192,16 +5591,16 @@
         <v>162</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5209,16 +5608,16 @@
         <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5226,16 +5625,16 @@
         <v>164</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5243,16 +5642,16 @@
         <v>165</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5260,16 +5659,16 @@
         <v>166</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5277,16 +5676,16 @@
         <v>167</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5294,16 +5693,16 @@
         <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5311,16 +5710,16 @@
         <v>169</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5328,16 +5727,16 @@
         <v>170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5345,16 +5744,16 @@
         <v>171</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5362,16 +5761,16 @@
         <v>172</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5382,13 +5781,13 @@
         <v>142</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5399,13 +5798,13 @@
         <v>142</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
+++ b/legislator/property/output/normal/林滄敏_2012-04-27_財產申報表_tmp9bfb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="190">
   <si>
     <t>name</t>
   </si>
@@ -514,27 +514,27 @@
     <t>黃金</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>國華人壽</t>
   </si>
   <si>
+    <t>中華郵政</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>新光人爵</t>
+  </si>
+  <si>
     <t>國華人壽定期终生壽險</t>
   </si>
   <si>
-    <t>保險期間:79.12：21至終身繳費20年年繳152371元</t>
-  </si>
-  <si>
-    <t>中華郵政</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>新光人爵</t>
-  </si>
-  <si>
     <t>郵政簡易人壽六年期吉利保險</t>
   </si>
   <si>
@@ -571,55 +571,13 @@
     <t>元大商業銀行安聯人壽精選普爾</t>
   </si>
   <si>
-    <t>保險期間:99.4.6至105.4.6繳費6年年繳165700元</t>
-  </si>
-  <si>
-    <t>保險期間:99.4.6至105.4.6繳費6年年繳163800元</t>
-  </si>
-  <si>
-    <t>保險期間:97.612至103.6.12繳費6年年繳283602元</t>
-  </si>
-  <si>
-    <t>保險期間:97.612至103.6.12繳費6年年繳282858元</t>
-  </si>
-  <si>
-    <t>保險期間:98.2.3至1CM.2.2繳費6年年缴98280元</t>
-  </si>
-  <si>
-    <t>保險期間:98.2.3至104.2.2繳費6年年繳99420元</t>
-  </si>
-  <si>
-    <t>保險期間:91.12.11至終身繳費20年年繳3480元</t>
-  </si>
-  <si>
-    <t>保險期間:91.12.11至終身繳費20年年繳2380元</t>
-  </si>
-  <si>
-    <t>保險期間:94.9.5至153.9.5月繳20000元</t>
-  </si>
-  <si>
-    <t>保險期間9i.i2.il費20年年繳90734元</t>
-  </si>
-  <si>
-    <t>保險期間91.12.11至终身i敦費20年年繳91745元</t>
-  </si>
-  <si>
-    <t>评險期間9112.11至終身繳費20年年繳88248元</t>
-  </si>
-  <si>
-    <t>保險期間:94.8.26至101.9.13躉繳100萬元</t>
-  </si>
-  <si>
-    <t>保險期間:98.2.26至108.2.26繳費10年年繳266500元</t>
-  </si>
-  <si>
-    <t>保險期間:98.2.26至108.2.26繳費10年年繳114780元</t>
-  </si>
-  <si>
-    <t>保險期間:96.3.29至106.3.29躉繳100萬元</t>
-  </si>
-  <si>
-    <t>保險期間:97.6.19至164.6.19躉繳1788703元</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>抵押貸款</t>
@@ -632,6 +590,9 @@
   </si>
   <si>
     <t>CEXJ7=ta貝賣</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2166,53 +2127,95 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" s="1">
-        <v>6500000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>201</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E2" s="2">
         <v>6500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>202</v>
+        <v>188</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1338</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="2">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -5481,49 +5484,85 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>156</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>170</v>
@@ -5534,13 +5573,31 @@
       <c r="E3" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>159</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>170</v>
@@ -5549,15 +5606,33 @@
         <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>160</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>171</v>
@@ -5566,15 +5641,33 @@
         <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>161</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>171</v>
@@ -5583,15 +5676,33 @@
         <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>162</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>170</v>
@@ -5600,15 +5711,33 @@
         <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>163</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>170</v>
@@ -5617,15 +5746,33 @@
         <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>164</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>172</v>
@@ -5634,15 +5781,33 @@
         <v>41</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>165</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>173</v>
@@ -5651,15 +5816,33 @@
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>166</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>174</v>
@@ -5668,15 +5851,33 @@
         <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>167</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>175</v>
@@ -5685,15 +5886,33 @@
         <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>168</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>176</v>
@@ -5702,15 +5921,33 @@
         <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>169</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>176</v>
@@ -5719,15 +5956,33 @@
         <v>41</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>170</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>177</v>
@@ -5736,15 +5991,33 @@
         <v>41</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>171</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>178</v>
@@ -5753,15 +6026,33 @@
         <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>172</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>179</v>
@@ -5770,10 +6061,28 @@
         <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>173</v>
       </c>
@@ -5787,10 +6096,28 @@
         <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>182</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>174</v>
       </c>
@@ -5804,7 +6131,25 @@
         <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>198</v>
+        <v>182</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="2">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
